--- a/Code/Results/Cases/Case_0_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_line/loading_percent.xlsx
@@ -415,28 +415,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.032189698827978</v>
+        <v>8.032189698827906</v>
       </c>
       <c r="D2">
-        <v>5.200657805850155</v>
+        <v>5.200657805850156</v>
       </c>
       <c r="E2">
-        <v>18.34024847241191</v>
+        <v>18.34024847241195</v>
       </c>
       <c r="F2">
-        <v>45.76382942364289</v>
+        <v>45.7638294236429</v>
       </c>
       <c r="G2">
-        <v>35.20316005904873</v>
+        <v>35.20316005904876</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.35382956377013</v>
+        <v>14.35382956377015</v>
       </c>
       <c r="J2">
-        <v>103.2680061905409</v>
+        <v>103.268006190541</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.333932770440331</v>
+        <v>7.333932770440202</v>
       </c>
       <c r="D3">
-        <v>4.513163582092982</v>
+        <v>4.513163582092973</v>
       </c>
       <c r="E3">
-        <v>16.75279296994271</v>
+        <v>16.75279296994267</v>
       </c>
       <c r="F3">
-        <v>40.39621230327684</v>
+        <v>40.39621230327673</v>
       </c>
       <c r="G3">
-        <v>30.88569572273946</v>
+        <v>30.88569572273939</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.0251614000176</v>
+        <v>13.02516140001761</v>
       </c>
       <c r="J3">
-        <v>95.08788272085516</v>
+        <v>95.08788272085496</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.905328580391192</v>
+        <v>6.905328580391198</v>
       </c>
       <c r="D4">
-        <v>4.115571538677917</v>
+        <v>4.115571538677846</v>
       </c>
       <c r="E4">
-        <v>15.77786107461654</v>
+        <v>15.77786107461652</v>
       </c>
       <c r="F4">
-        <v>37.28113691667455</v>
+        <v>37.28113691667428</v>
       </c>
       <c r="G4">
-        <v>28.37866147269994</v>
+        <v>28.37866147269971</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.22099596805274</v>
+        <v>12.22099596805277</v>
       </c>
       <c r="J4">
-        <v>89.98009744691554</v>
+        <v>89.98009744691522</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.729585677140816</v>
+        <v>6.729585677140681</v>
       </c>
       <c r="D5">
-        <v>3.957779211634826</v>
+        <v>3.95777921163489</v>
       </c>
       <c r="E5">
-        <v>15.37794428813452</v>
+        <v>15.37794428813457</v>
       </c>
       <c r="F5">
-        <v>36.04497842763426</v>
+        <v>36.04497842763423</v>
       </c>
       <c r="G5">
-        <v>27.38318482756646</v>
+        <v>27.38318482756647</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.89359722061756</v>
+        <v>11.8935972206176</v>
       </c>
       <c r="J5">
-        <v>87.86748643188076</v>
+        <v>87.86748643188078</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,28 +567,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.700312073147489</v>
+        <v>6.700312073147472</v>
       </c>
       <c r="D6">
         <v>3.931787992992208</v>
       </c>
       <c r="E6">
-        <v>15.31131982265576</v>
+        <v>15.31131982265577</v>
       </c>
       <c r="F6">
-        <v>35.84145387603056</v>
+        <v>35.84145387603066</v>
       </c>
       <c r="G6">
-        <v>27.21924288564814</v>
+        <v>27.21924288564822</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.83919011117453</v>
+        <v>11.83919011117455</v>
       </c>
       <c r="J6">
-        <v>87.51457693611314</v>
+        <v>87.51457693611317</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,28 +605,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.902964058047669</v>
+        <v>6.902964058047653</v>
       </c>
       <c r="D7">
-        <v>4.113428487832048</v>
+        <v>4.113428487831985</v>
       </c>
       <c r="E7">
-        <v>15.77248108571121</v>
+        <v>15.77248108571126</v>
       </c>
       <c r="F7">
-        <v>37.26434370757998</v>
+        <v>37.26434370758017</v>
       </c>
       <c r="G7">
-        <v>28.36514073631841</v>
+        <v>28.36514073631855</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.21658217599605</v>
+        <v>12.21658217599608</v>
       </c>
       <c r="J7">
-        <v>89.95174289947293</v>
+        <v>89.95174289947283</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.790602605483743</v>
+        <v>7.790602605483529</v>
       </c>
       <c r="D8">
-        <v>4.957121575700685</v>
+        <v>4.957121575700554</v>
       </c>
       <c r="E8">
-        <v>17.79109215204701</v>
+        <v>17.79109215204691</v>
       </c>
       <c r="F8">
-        <v>43.86654863433183</v>
+        <v>43.86654863433127</v>
       </c>
       <c r="G8">
-        <v>33.67721483197591</v>
+        <v>33.67721483197544</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.89139610926426</v>
+        <v>13.89139610926416</v>
       </c>
       <c r="J8">
-        <v>100.4582269915925</v>
+        <v>100.4582269915922</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.617381260486745</v>
+        <v>9.617381260486802</v>
       </c>
       <c r="D9">
-        <v>6.955035140939167</v>
+        <v>6.955035140939164</v>
       </c>
       <c r="E9">
-        <v>21.94528949234724</v>
+        <v>21.94528949234729</v>
       </c>
       <c r="F9">
-        <v>59.24231177401438</v>
+        <v>59.24231177401489</v>
       </c>
       <c r="G9">
-        <v>46.05007120843914</v>
+        <v>46.05007120843958</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.47082532546936</v>
+        <v>17.47082532546941</v>
       </c>
       <c r="J9">
-        <v>121.1141140302736</v>
+        <v>121.1141140302737</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.30894108262568</v>
+        <v>11.30894108262566</v>
       </c>
       <c r="D10">
-        <v>9.153159280474057</v>
+        <v>9.153159280474052</v>
       </c>
       <c r="E10">
-        <v>25.8165919933076</v>
+        <v>25.81659199330755</v>
       </c>
       <c r="F10">
-        <v>75.63355991260764</v>
+        <v>75.63355991260757</v>
       </c>
       <c r="G10">
-        <v>59.2747508117857</v>
+        <v>59.27475081178562</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.00223450502436</v>
+        <v>21.00223450502435</v>
       </c>
       <c r="J10">
-        <v>138.8000110783795</v>
+        <v>138.8000110783794</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.56604688098794</v>
+        <v>12.5660468809881</v>
       </c>
       <c r="D11">
-        <v>11.03395941746759</v>
+        <v>11.03395941746779</v>
       </c>
       <c r="E11">
-        <v>28.74912724377556</v>
+        <v>28.74912724377571</v>
       </c>
       <c r="F11">
-        <v>89.28807908739496</v>
+        <v>89.28807908739621</v>
       </c>
       <c r="G11">
-        <v>70.32542100000265</v>
+        <v>70.32542100000364</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.83150648953929</v>
+        <v>23.83150648953943</v>
       </c>
       <c r="J11">
-        <v>150.7340884889493</v>
+        <v>150.7340884889498</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.56604688098794</v>
+        <v>12.5660468809881</v>
       </c>
       <c r="D12">
-        <v>11.03395941746759</v>
+        <v>11.03395941746779</v>
       </c>
       <c r="E12">
-        <v>28.74912724377556</v>
+        <v>28.74912724377571</v>
       </c>
       <c r="F12">
-        <v>89.28807908739496</v>
+        <v>89.28807908739621</v>
       </c>
       <c r="G12">
-        <v>70.32542100000265</v>
+        <v>70.32542100000364</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.83150648953929</v>
+        <v>23.83150648953943</v>
       </c>
       <c r="J12">
-        <v>150.7340884889493</v>
+        <v>150.7340884889498</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.56604688098794</v>
+        <v>12.5660468809881</v>
       </c>
       <c r="D13">
-        <v>11.03395941746759</v>
+        <v>11.03395941746779</v>
       </c>
       <c r="E13">
-        <v>28.74912724377556</v>
+        <v>28.74912724377571</v>
       </c>
       <c r="F13">
-        <v>89.28807908739496</v>
+        <v>89.28807908739621</v>
       </c>
       <c r="G13">
-        <v>70.32542100000265</v>
+        <v>70.32542100000364</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.83150648953929</v>
+        <v>23.83150648953943</v>
       </c>
       <c r="J13">
-        <v>150.7340884889493</v>
+        <v>150.7340884889498</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.56604688098794</v>
+        <v>12.5660468809881</v>
       </c>
       <c r="D14">
-        <v>11.03395941746759</v>
+        <v>11.03395941746779</v>
       </c>
       <c r="E14">
-        <v>28.74912724377556</v>
+        <v>28.74912724377571</v>
       </c>
       <c r="F14">
-        <v>89.28807908739496</v>
+        <v>89.28807908739621</v>
       </c>
       <c r="G14">
-        <v>70.32542100000265</v>
+        <v>70.32542100000364</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.83150648953929</v>
+        <v>23.83150648953943</v>
       </c>
       <c r="J14">
-        <v>150.7340884889493</v>
+        <v>150.7340884889498</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.56604688098794</v>
+        <v>12.5660468809881</v>
       </c>
       <c r="D15">
-        <v>11.03395941746759</v>
+        <v>11.03395941746779</v>
       </c>
       <c r="E15">
-        <v>28.74912724377556</v>
+        <v>28.74912724377571</v>
       </c>
       <c r="F15">
-        <v>89.28807908739496</v>
+        <v>89.28807908739621</v>
       </c>
       <c r="G15">
-        <v>70.32542100000265</v>
+        <v>70.32542100000364</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.83150648953929</v>
+        <v>23.83150648953943</v>
       </c>
       <c r="J15">
-        <v>150.7340884889493</v>
+        <v>150.7340884889498</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.56604688098794</v>
+        <v>12.5660468809881</v>
       </c>
       <c r="D16">
-        <v>11.03395941746759</v>
+        <v>11.03395941746779</v>
       </c>
       <c r="E16">
-        <v>28.74912724377556</v>
+        <v>28.74912724377571</v>
       </c>
       <c r="F16">
-        <v>89.28807908739496</v>
+        <v>89.28807908739621</v>
       </c>
       <c r="G16">
-        <v>70.32542100000265</v>
+        <v>70.32542100000364</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.83150648953929</v>
+        <v>23.83150648953943</v>
       </c>
       <c r="J16">
-        <v>150.7340884889493</v>
+        <v>150.7340884889498</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.56604688098794</v>
+        <v>12.5660468809881</v>
       </c>
       <c r="D17">
-        <v>11.03395941746759</v>
+        <v>11.03395941746779</v>
       </c>
       <c r="E17">
-        <v>28.74912724377556</v>
+        <v>28.74912724377571</v>
       </c>
       <c r="F17">
-        <v>89.28807908739496</v>
+        <v>89.28807908739621</v>
       </c>
       <c r="G17">
-        <v>70.32542100000265</v>
+        <v>70.32542100000364</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.83150648953929</v>
+        <v>23.83150648953943</v>
       </c>
       <c r="J17">
-        <v>150.7340884889493</v>
+        <v>150.7340884889498</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.56604688098794</v>
+        <v>12.5660468809881</v>
       </c>
       <c r="D18">
-        <v>11.03395941746759</v>
+        <v>11.03395941746779</v>
       </c>
       <c r="E18">
-        <v>28.74912724377556</v>
+        <v>28.74912724377571</v>
       </c>
       <c r="F18">
-        <v>89.28807908739496</v>
+        <v>89.28807908739621</v>
       </c>
       <c r="G18">
-        <v>70.32542100000265</v>
+        <v>70.32542100000364</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.83150648953929</v>
+        <v>23.83150648953943</v>
       </c>
       <c r="J18">
-        <v>150.7340884889493</v>
+        <v>150.7340884889498</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.56604688098794</v>
+        <v>12.5660468809881</v>
       </c>
       <c r="D19">
-        <v>11.03395941746759</v>
+        <v>11.03395941746779</v>
       </c>
       <c r="E19">
-        <v>28.74912724377556</v>
+        <v>28.74912724377571</v>
       </c>
       <c r="F19">
-        <v>89.28807908739496</v>
+        <v>89.28807908739621</v>
       </c>
       <c r="G19">
-        <v>70.32542100000265</v>
+        <v>70.32542100000364</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.83150648953929</v>
+        <v>23.83150648953943</v>
       </c>
       <c r="J19">
-        <v>150.7340884889493</v>
+        <v>150.7340884889498</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.56604688098794</v>
+        <v>12.5660468809881</v>
       </c>
       <c r="D20">
-        <v>11.03395941746759</v>
+        <v>11.03395941746779</v>
       </c>
       <c r="E20">
-        <v>28.74912724377556</v>
+        <v>28.74912724377571</v>
       </c>
       <c r="F20">
-        <v>89.28807908739496</v>
+        <v>89.28807908739621</v>
       </c>
       <c r="G20">
-        <v>70.32542100000265</v>
+        <v>70.32542100000364</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.83150648953929</v>
+        <v>23.83150648953943</v>
       </c>
       <c r="J20">
-        <v>150.7340884889493</v>
+        <v>150.7340884889498</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.56604688098794</v>
+        <v>12.5660468809881</v>
       </c>
       <c r="D21">
-        <v>11.03395941746759</v>
+        <v>11.03395941746779</v>
       </c>
       <c r="E21">
-        <v>28.74912724377556</v>
+        <v>28.74912724377571</v>
       </c>
       <c r="F21">
-        <v>89.28807908739496</v>
+        <v>89.28807908739621</v>
       </c>
       <c r="G21">
-        <v>70.32542100000265</v>
+        <v>70.32542100000364</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.83150648953929</v>
+        <v>23.83150648953943</v>
       </c>
       <c r="J21">
-        <v>150.7340884889493</v>
+        <v>150.7340884889498</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.56604688098794</v>
+        <v>12.5660468809881</v>
       </c>
       <c r="D22">
-        <v>11.03395941746759</v>
+        <v>11.03395941746779</v>
       </c>
       <c r="E22">
-        <v>28.74912724377556</v>
+        <v>28.74912724377571</v>
       </c>
       <c r="F22">
-        <v>89.28807908739496</v>
+        <v>89.28807908739621</v>
       </c>
       <c r="G22">
-        <v>70.32542100000265</v>
+        <v>70.32542100000364</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.83150648953929</v>
+        <v>23.83150648953943</v>
       </c>
       <c r="J22">
-        <v>150.7340884889493</v>
+        <v>150.7340884889498</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.56604688098794</v>
+        <v>12.5660468809881</v>
       </c>
       <c r="D23">
-        <v>11.03395941746759</v>
+        <v>11.03395941746779</v>
       </c>
       <c r="E23">
-        <v>28.74912724377556</v>
+        <v>28.74912724377571</v>
       </c>
       <c r="F23">
-        <v>89.28807908739496</v>
+        <v>89.28807908739621</v>
       </c>
       <c r="G23">
-        <v>70.32542100000265</v>
+        <v>70.32542100000364</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.83150648953929</v>
+        <v>23.83150648953943</v>
       </c>
       <c r="J23">
-        <v>150.7340884889493</v>
+        <v>150.7340884889498</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.56604688098794</v>
+        <v>12.5660468809881</v>
       </c>
       <c r="D24">
-        <v>11.03395941746759</v>
+        <v>11.03395941746779</v>
       </c>
       <c r="E24">
-        <v>28.74912724377556</v>
+        <v>28.74912724377571</v>
       </c>
       <c r="F24">
-        <v>89.28807908739496</v>
+        <v>89.28807908739621</v>
       </c>
       <c r="G24">
-        <v>70.32542100000265</v>
+        <v>70.32542100000364</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.83150648953929</v>
+        <v>23.83150648953943</v>
       </c>
       <c r="J24">
-        <v>150.7340884889493</v>
+        <v>150.7340884889498</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.56604688098794</v>
+        <v>12.5660468809881</v>
       </c>
       <c r="D25">
-        <v>11.03395941746759</v>
+        <v>11.03395941746779</v>
       </c>
       <c r="E25">
-        <v>28.74912724377556</v>
+        <v>28.74912724377571</v>
       </c>
       <c r="F25">
-        <v>89.28807908739496</v>
+        <v>89.28807908739621</v>
       </c>
       <c r="G25">
-        <v>70.32542100000265</v>
+        <v>70.32542100000364</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.83150648953929</v>
+        <v>23.83150648953943</v>
       </c>
       <c r="J25">
-        <v>150.7340884889493</v>
+        <v>150.7340884889498</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_line/loading_percent.xlsx
@@ -415,28 +415,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.032189698827906</v>
+        <v>8.032189698827978</v>
       </c>
       <c r="D2">
-        <v>5.200657805850156</v>
+        <v>5.200657805850155</v>
       </c>
       <c r="E2">
-        <v>18.34024847241195</v>
+        <v>18.34024847241191</v>
       </c>
       <c r="F2">
-        <v>45.7638294236429</v>
+        <v>45.76382942364289</v>
       </c>
       <c r="G2">
-        <v>35.20316005904876</v>
+        <v>35.20316005904873</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.35382956377015</v>
+        <v>14.35382956377013</v>
       </c>
       <c r="J2">
-        <v>103.268006190541</v>
+        <v>103.2680061905409</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.333932770440202</v>
+        <v>7.333932770440331</v>
       </c>
       <c r="D3">
-        <v>4.513163582092973</v>
+        <v>4.513163582092982</v>
       </c>
       <c r="E3">
-        <v>16.75279296994267</v>
+        <v>16.75279296994271</v>
       </c>
       <c r="F3">
-        <v>40.39621230327673</v>
+        <v>40.39621230327684</v>
       </c>
       <c r="G3">
-        <v>30.88569572273939</v>
+        <v>30.88569572273946</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.02516140001761</v>
+        <v>13.0251614000176</v>
       </c>
       <c r="J3">
-        <v>95.08788272085496</v>
+        <v>95.08788272085516</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.905328580391198</v>
+        <v>6.905328580391192</v>
       </c>
       <c r="D4">
-        <v>4.115571538677846</v>
+        <v>4.115571538677917</v>
       </c>
       <c r="E4">
-        <v>15.77786107461652</v>
+        <v>15.77786107461654</v>
       </c>
       <c r="F4">
-        <v>37.28113691667428</v>
+        <v>37.28113691667455</v>
       </c>
       <c r="G4">
-        <v>28.37866147269971</v>
+        <v>28.37866147269994</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.22099596805277</v>
+        <v>12.22099596805274</v>
       </c>
       <c r="J4">
-        <v>89.98009744691522</v>
+        <v>89.98009744691554</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.729585677140681</v>
+        <v>6.729585677140816</v>
       </c>
       <c r="D5">
-        <v>3.95777921163489</v>
+        <v>3.957779211634826</v>
       </c>
       <c r="E5">
-        <v>15.37794428813457</v>
+        <v>15.37794428813452</v>
       </c>
       <c r="F5">
-        <v>36.04497842763423</v>
+        <v>36.04497842763426</v>
       </c>
       <c r="G5">
-        <v>27.38318482756647</v>
+        <v>27.38318482756646</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.8935972206176</v>
+        <v>11.89359722061756</v>
       </c>
       <c r="J5">
-        <v>87.86748643188078</v>
+        <v>87.86748643188076</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,28 +567,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.700312073147472</v>
+        <v>6.700312073147489</v>
       </c>
       <c r="D6">
         <v>3.931787992992208</v>
       </c>
       <c r="E6">
-        <v>15.31131982265577</v>
+        <v>15.31131982265576</v>
       </c>
       <c r="F6">
-        <v>35.84145387603066</v>
+        <v>35.84145387603056</v>
       </c>
       <c r="G6">
-        <v>27.21924288564822</v>
+        <v>27.21924288564814</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.83919011117455</v>
+        <v>11.83919011117453</v>
       </c>
       <c r="J6">
-        <v>87.51457693611317</v>
+        <v>87.51457693611314</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,28 +605,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.902964058047653</v>
+        <v>6.902964058047669</v>
       </c>
       <c r="D7">
-        <v>4.113428487831985</v>
+        <v>4.113428487832048</v>
       </c>
       <c r="E7">
-        <v>15.77248108571126</v>
+        <v>15.77248108571121</v>
       </c>
       <c r="F7">
-        <v>37.26434370758017</v>
+        <v>37.26434370757998</v>
       </c>
       <c r="G7">
-        <v>28.36514073631855</v>
+        <v>28.36514073631841</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.21658217599608</v>
+        <v>12.21658217599605</v>
       </c>
       <c r="J7">
-        <v>89.95174289947283</v>
+        <v>89.95174289947293</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.790602605483529</v>
+        <v>7.790602605483743</v>
       </c>
       <c r="D8">
-        <v>4.957121575700554</v>
+        <v>4.957121575700685</v>
       </c>
       <c r="E8">
-        <v>17.79109215204691</v>
+        <v>17.79109215204701</v>
       </c>
       <c r="F8">
-        <v>43.86654863433127</v>
+        <v>43.86654863433183</v>
       </c>
       <c r="G8">
-        <v>33.67721483197544</v>
+        <v>33.67721483197591</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.89139610926416</v>
+        <v>13.89139610926426</v>
       </c>
       <c r="J8">
-        <v>100.4582269915922</v>
+        <v>100.4582269915925</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.617381260486802</v>
+        <v>9.617381260486745</v>
       </c>
       <c r="D9">
-        <v>6.955035140939164</v>
+        <v>6.955035140939167</v>
       </c>
       <c r="E9">
-        <v>21.94528949234729</v>
+        <v>21.94528949234724</v>
       </c>
       <c r="F9">
-        <v>59.24231177401489</v>
+        <v>59.24231177401438</v>
       </c>
       <c r="G9">
-        <v>46.05007120843958</v>
+        <v>46.05007120843914</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.47082532546941</v>
+        <v>17.47082532546936</v>
       </c>
       <c r="J9">
-        <v>121.1141140302737</v>
+        <v>121.1141140302736</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.30894108262566</v>
+        <v>11.30894108262568</v>
       </c>
       <c r="D10">
-        <v>9.153159280474052</v>
+        <v>9.153159280474057</v>
       </c>
       <c r="E10">
-        <v>25.81659199330755</v>
+        <v>25.8165919933076</v>
       </c>
       <c r="F10">
-        <v>75.63355991260757</v>
+        <v>75.63355991260764</v>
       </c>
       <c r="G10">
-        <v>59.27475081178562</v>
+        <v>59.2747508117857</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.00223450502435</v>
+        <v>21.00223450502436</v>
       </c>
       <c r="J10">
-        <v>138.8000110783794</v>
+        <v>138.8000110783795</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.5660468809881</v>
+        <v>12.56604688098794</v>
       </c>
       <c r="D11">
-        <v>11.03395941746779</v>
+        <v>11.03395941746759</v>
       </c>
       <c r="E11">
-        <v>28.74912724377571</v>
+        <v>28.74912724377556</v>
       </c>
       <c r="F11">
-        <v>89.28807908739621</v>
+        <v>89.28807908739496</v>
       </c>
       <c r="G11">
-        <v>70.32542100000364</v>
+        <v>70.32542100000265</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.83150648953943</v>
+        <v>23.83150648953929</v>
       </c>
       <c r="J11">
-        <v>150.7340884889498</v>
+        <v>150.7340884889493</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.5660468809881</v>
+        <v>12.56604688098794</v>
       </c>
       <c r="D12">
-        <v>11.03395941746779</v>
+        <v>11.03395941746759</v>
       </c>
       <c r="E12">
-        <v>28.74912724377571</v>
+        <v>28.74912724377556</v>
       </c>
       <c r="F12">
-        <v>89.28807908739621</v>
+        <v>89.28807908739496</v>
       </c>
       <c r="G12">
-        <v>70.32542100000364</v>
+        <v>70.32542100000265</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.83150648953943</v>
+        <v>23.83150648953929</v>
       </c>
       <c r="J12">
-        <v>150.7340884889498</v>
+        <v>150.7340884889493</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.5660468809881</v>
+        <v>12.56604688098794</v>
       </c>
       <c r="D13">
-        <v>11.03395941746779</v>
+        <v>11.03395941746759</v>
       </c>
       <c r="E13">
-        <v>28.74912724377571</v>
+        <v>28.74912724377556</v>
       </c>
       <c r="F13">
-        <v>89.28807908739621</v>
+        <v>89.28807908739496</v>
       </c>
       <c r="G13">
-        <v>70.32542100000364</v>
+        <v>70.32542100000265</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.83150648953943</v>
+        <v>23.83150648953929</v>
       </c>
       <c r="J13">
-        <v>150.7340884889498</v>
+        <v>150.7340884889493</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.5660468809881</v>
+        <v>12.56604688098794</v>
       </c>
       <c r="D14">
-        <v>11.03395941746779</v>
+        <v>11.03395941746759</v>
       </c>
       <c r="E14">
-        <v>28.74912724377571</v>
+        <v>28.74912724377556</v>
       </c>
       <c r="F14">
-        <v>89.28807908739621</v>
+        <v>89.28807908739496</v>
       </c>
       <c r="G14">
-        <v>70.32542100000364</v>
+        <v>70.32542100000265</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.83150648953943</v>
+        <v>23.83150648953929</v>
       </c>
       <c r="J14">
-        <v>150.7340884889498</v>
+        <v>150.7340884889493</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.5660468809881</v>
+        <v>12.56604688098794</v>
       </c>
       <c r="D15">
-        <v>11.03395941746779</v>
+        <v>11.03395941746759</v>
       </c>
       <c r="E15">
-        <v>28.74912724377571</v>
+        <v>28.74912724377556</v>
       </c>
       <c r="F15">
-        <v>89.28807908739621</v>
+        <v>89.28807908739496</v>
       </c>
       <c r="G15">
-        <v>70.32542100000364</v>
+        <v>70.32542100000265</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.83150648953943</v>
+        <v>23.83150648953929</v>
       </c>
       <c r="J15">
-        <v>150.7340884889498</v>
+        <v>150.7340884889493</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.5660468809881</v>
+        <v>12.56604688098794</v>
       </c>
       <c r="D16">
-        <v>11.03395941746779</v>
+        <v>11.03395941746759</v>
       </c>
       <c r="E16">
-        <v>28.74912724377571</v>
+        <v>28.74912724377556</v>
       </c>
       <c r="F16">
-        <v>89.28807908739621</v>
+        <v>89.28807908739496</v>
       </c>
       <c r="G16">
-        <v>70.32542100000364</v>
+        <v>70.32542100000265</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.83150648953943</v>
+        <v>23.83150648953929</v>
       </c>
       <c r="J16">
-        <v>150.7340884889498</v>
+        <v>150.7340884889493</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.5660468809881</v>
+        <v>12.56604688098794</v>
       </c>
       <c r="D17">
-        <v>11.03395941746779</v>
+        <v>11.03395941746759</v>
       </c>
       <c r="E17">
-        <v>28.74912724377571</v>
+        <v>28.74912724377556</v>
       </c>
       <c r="F17">
-        <v>89.28807908739621</v>
+        <v>89.28807908739496</v>
       </c>
       <c r="G17">
-        <v>70.32542100000364</v>
+        <v>70.32542100000265</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.83150648953943</v>
+        <v>23.83150648953929</v>
       </c>
       <c r="J17">
-        <v>150.7340884889498</v>
+        <v>150.7340884889493</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.5660468809881</v>
+        <v>12.56604688098794</v>
       </c>
       <c r="D18">
-        <v>11.03395941746779</v>
+        <v>11.03395941746759</v>
       </c>
       <c r="E18">
-        <v>28.74912724377571</v>
+        <v>28.74912724377556</v>
       </c>
       <c r="F18">
-        <v>89.28807908739621</v>
+        <v>89.28807908739496</v>
       </c>
       <c r="G18">
-        <v>70.32542100000364</v>
+        <v>70.32542100000265</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.83150648953943</v>
+        <v>23.83150648953929</v>
       </c>
       <c r="J18">
-        <v>150.7340884889498</v>
+        <v>150.7340884889493</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.5660468809881</v>
+        <v>12.56604688098794</v>
       </c>
       <c r="D19">
-        <v>11.03395941746779</v>
+        <v>11.03395941746759</v>
       </c>
       <c r="E19">
-        <v>28.74912724377571</v>
+        <v>28.74912724377556</v>
       </c>
       <c r="F19">
-        <v>89.28807908739621</v>
+        <v>89.28807908739496</v>
       </c>
       <c r="G19">
-        <v>70.32542100000364</v>
+        <v>70.32542100000265</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.83150648953943</v>
+        <v>23.83150648953929</v>
       </c>
       <c r="J19">
-        <v>150.7340884889498</v>
+        <v>150.7340884889493</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.5660468809881</v>
+        <v>12.56604688098794</v>
       </c>
       <c r="D20">
-        <v>11.03395941746779</v>
+        <v>11.03395941746759</v>
       </c>
       <c r="E20">
-        <v>28.74912724377571</v>
+        <v>28.74912724377556</v>
       </c>
       <c r="F20">
-        <v>89.28807908739621</v>
+        <v>89.28807908739496</v>
       </c>
       <c r="G20">
-        <v>70.32542100000364</v>
+        <v>70.32542100000265</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.83150648953943</v>
+        <v>23.83150648953929</v>
       </c>
       <c r="J20">
-        <v>150.7340884889498</v>
+        <v>150.7340884889493</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.5660468809881</v>
+        <v>12.56604688098794</v>
       </c>
       <c r="D21">
-        <v>11.03395941746779</v>
+        <v>11.03395941746759</v>
       </c>
       <c r="E21">
-        <v>28.74912724377571</v>
+        <v>28.74912724377556</v>
       </c>
       <c r="F21">
-        <v>89.28807908739621</v>
+        <v>89.28807908739496</v>
       </c>
       <c r="G21">
-        <v>70.32542100000364</v>
+        <v>70.32542100000265</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.83150648953943</v>
+        <v>23.83150648953929</v>
       </c>
       <c r="J21">
-        <v>150.7340884889498</v>
+        <v>150.7340884889493</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.5660468809881</v>
+        <v>12.56604688098794</v>
       </c>
       <c r="D22">
-        <v>11.03395941746779</v>
+        <v>11.03395941746759</v>
       </c>
       <c r="E22">
-        <v>28.74912724377571</v>
+        <v>28.74912724377556</v>
       </c>
       <c r="F22">
-        <v>89.28807908739621</v>
+        <v>89.28807908739496</v>
       </c>
       <c r="G22">
-        <v>70.32542100000364</v>
+        <v>70.32542100000265</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.83150648953943</v>
+        <v>23.83150648953929</v>
       </c>
       <c r="J22">
-        <v>150.7340884889498</v>
+        <v>150.7340884889493</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.5660468809881</v>
+        <v>12.56604688098794</v>
       </c>
       <c r="D23">
-        <v>11.03395941746779</v>
+        <v>11.03395941746759</v>
       </c>
       <c r="E23">
-        <v>28.74912724377571</v>
+        <v>28.74912724377556</v>
       </c>
       <c r="F23">
-        <v>89.28807908739621</v>
+        <v>89.28807908739496</v>
       </c>
       <c r="G23">
-        <v>70.32542100000364</v>
+        <v>70.32542100000265</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.83150648953943</v>
+        <v>23.83150648953929</v>
       </c>
       <c r="J23">
-        <v>150.7340884889498</v>
+        <v>150.7340884889493</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.5660468809881</v>
+        <v>12.56604688098794</v>
       </c>
       <c r="D24">
-        <v>11.03395941746779</v>
+        <v>11.03395941746759</v>
       </c>
       <c r="E24">
-        <v>28.74912724377571</v>
+        <v>28.74912724377556</v>
       </c>
       <c r="F24">
-        <v>89.28807908739621</v>
+        <v>89.28807908739496</v>
       </c>
       <c r="G24">
-        <v>70.32542100000364</v>
+        <v>70.32542100000265</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.83150648953943</v>
+        <v>23.83150648953929</v>
       </c>
       <c r="J24">
-        <v>150.7340884889498</v>
+        <v>150.7340884889493</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.5660468809881</v>
+        <v>12.56604688098794</v>
       </c>
       <c r="D25">
-        <v>11.03395941746779</v>
+        <v>11.03395941746759</v>
       </c>
       <c r="E25">
-        <v>28.74912724377571</v>
+        <v>28.74912724377556</v>
       </c>
       <c r="F25">
-        <v>89.28807908739621</v>
+        <v>89.28807908739496</v>
       </c>
       <c r="G25">
-        <v>70.32542100000364</v>
+        <v>70.32542100000265</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.83150648953943</v>
+        <v>23.83150648953929</v>
       </c>
       <c r="J25">
-        <v>150.7340884889498</v>
+        <v>150.7340884889493</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.032189698827978</v>
+        <v>8.030935553614317</v>
       </c>
       <c r="D2">
-        <v>5.200657805850155</v>
+        <v>5.196208212299959</v>
       </c>
       <c r="E2">
-        <v>18.34024847241191</v>
+        <v>18.33987849252877</v>
       </c>
       <c r="F2">
-        <v>45.76382942364289</v>
+        <v>45.71313539509122</v>
       </c>
       <c r="G2">
-        <v>35.20316005904873</v>
+        <v>35.24491353227157</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>34.35009529796286</v>
       </c>
       <c r="I2">
-        <v>14.35382956377013</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>103.2680061905409</v>
+        <v>14.34897384112018</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>103.2562116259016</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.333932770440331</v>
+        <v>7.333070855443739</v>
       </c>
       <c r="D3">
-        <v>4.513163582092982</v>
+        <v>4.510217075473218</v>
       </c>
       <c r="E3">
-        <v>16.75279296994271</v>
+        <v>16.75307243925934</v>
       </c>
       <c r="F3">
-        <v>40.39621230327684</v>
+        <v>40.35332111383667</v>
       </c>
       <c r="G3">
-        <v>30.88569572273946</v>
+        <v>30.923589201142</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>30.13551278759484</v>
       </c>
       <c r="I3">
-        <v>13.0251614000176</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>95.08788272085516</v>
+        <v>13.02134289219872</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>95.07963266092946</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.905328580391192</v>
+        <v>6.904653933200139</v>
       </c>
       <c r="D4">
-        <v>4.115571538677917</v>
+        <v>4.113434504969328</v>
       </c>
       <c r="E4">
-        <v>15.77786107461654</v>
+        <v>15.77842186213988</v>
       </c>
       <c r="F4">
-        <v>37.28113691667455</v>
+        <v>37.24233630219896</v>
       </c>
       <c r="G4">
-        <v>28.37866147269994</v>
+        <v>28.41399639892071</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>27.70737890509369</v>
       </c>
       <c r="I4">
-        <v>12.22099596805274</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>89.98009744691554</v>
+        <v>12.21769384502572</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>89.97356786244343</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.729585677140816</v>
+        <v>6.728978230085095</v>
       </c>
       <c r="D5">
-        <v>3.957779211634826</v>
+        <v>3.955952835381946</v>
       </c>
       <c r="E5">
-        <v>15.37794428813452</v>
+        <v>15.37859962018299</v>
       </c>
       <c r="F5">
-        <v>36.04497842763426</v>
+        <v>36.00772645311542</v>
       </c>
       <c r="G5">
-        <v>27.38318482756646</v>
+        <v>27.41745324840292</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>26.74840406790177</v>
       </c>
       <c r="I5">
-        <v>11.89359722061756</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>87.86748643188076</v>
+        <v>11.89048559000853</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>87.86158000413641</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.700312073147489</v>
+        <v>6.699715326376817</v>
       </c>
       <c r="D6">
-        <v>3.931787992992208</v>
+        <v>3.930012241029472</v>
       </c>
       <c r="E6">
-        <v>15.31131982265576</v>
+        <v>15.311989837759</v>
       </c>
       <c r="F6">
-        <v>35.84145387603056</v>
+        <v>35.80445313098175</v>
       </c>
       <c r="G6">
-        <v>27.21924288564814</v>
+        <v>27.25333325111373</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>26.5907984986176</v>
       </c>
       <c r="I6">
-        <v>11.83919011117453</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>87.51457693611314</v>
+        <v>11.83610912564314</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>87.50877005399526</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.902964058047669</v>
+        <v>6.902290349682318</v>
       </c>
       <c r="D7">
-        <v>4.113428487832048</v>
+        <v>4.111295712096236</v>
       </c>
       <c r="E7">
-        <v>15.77248108571121</v>
+        <v>15.77304322029942</v>
       </c>
       <c r="F7">
-        <v>37.26434370757998</v>
+        <v>37.22556439972497</v>
       </c>
       <c r="G7">
-        <v>28.36514073631841</v>
+        <v>28.40046135327158</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>27.69433227357846</v>
       </c>
       <c r="I7">
-        <v>12.21658217599605</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>89.95174289947293</v>
+        <v>12.21328269242603</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>89.94522199792119</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.790602605483743</v>
+        <v>7.789498199433333</v>
       </c>
       <c r="D8">
-        <v>4.957121575700685</v>
+        <v>4.953220937998291</v>
       </c>
       <c r="E8">
-        <v>17.79109215204701</v>
+        <v>17.790977855623</v>
       </c>
       <c r="F8">
-        <v>43.86654863433183</v>
+        <v>43.81873520015795</v>
       </c>
       <c r="G8">
-        <v>33.67721483197591</v>
+        <v>33.71769541681386</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>32.85657870636567</v>
       </c>
       <c r="I8">
-        <v>13.89139610926426</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>100.4582269915925</v>
+        <v>13.88693108282177</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>100.4477775813572</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.617381260486745</v>
+        <v>9.61457057858073</v>
       </c>
       <c r="D9">
-        <v>6.955035140939167</v>
+        <v>6.945870167393347</v>
       </c>
       <c r="E9">
-        <v>21.94528949234724</v>
+        <v>21.94194735487633</v>
       </c>
       <c r="F9">
-        <v>59.24231177401438</v>
+        <v>59.16548629317272</v>
       </c>
       <c r="G9">
-        <v>46.05007120843914</v>
+        <v>46.09644931261532</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>45.0450827711803</v>
       </c>
       <c r="I9">
-        <v>17.47082532546936</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>121.1141140302736</v>
+        <v>17.46206917514492</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>121.0887025724914</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.30894108262568</v>
+        <v>11.30171544287934</v>
       </c>
       <c r="D10">
-        <v>9.153159280474057</v>
+        <v>9.133941922657229</v>
       </c>
       <c r="E10">
-        <v>25.8165919933076</v>
+        <v>25.80363280645633</v>
       </c>
       <c r="F10">
-        <v>75.63355991260764</v>
+        <v>75.49465824648462</v>
       </c>
       <c r="G10">
-        <v>59.2747508117857</v>
+        <v>59.30241139275195</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>58.17002411206362</v>
       </c>
       <c r="I10">
-        <v>21.00223450502436</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>138.8000110783795</v>
+        <v>20.98263508838779</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>138.7375679569437</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.56604688098794</v>
+        <v>12.54565629058074</v>
       </c>
       <c r="D11">
-        <v>11.03395941746759</v>
+        <v>10.98983916381841</v>
       </c>
       <c r="E11">
-        <v>28.74912724377556</v>
+        <v>28.70497722343625</v>
       </c>
       <c r="F11">
-        <v>89.28807908739496</v>
+        <v>88.98059353530576</v>
       </c>
       <c r="G11">
-        <v>70.32542100000265</v>
+        <v>70.24252077806146</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>69.08872131377511</v>
       </c>
       <c r="I11">
-        <v>23.83150648953929</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>150.7340884889493</v>
+        <v>23.77895412409822</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>150.5648869964432</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.56604688098794</v>
+        <v>12.54565629058074</v>
       </c>
       <c r="D12">
-        <v>11.03395941746759</v>
+        <v>10.98983916381841</v>
       </c>
       <c r="E12">
-        <v>28.74912724377556</v>
+        <v>28.70497722343625</v>
       </c>
       <c r="F12">
-        <v>89.28807908739496</v>
+        <v>88.98059353530576</v>
       </c>
       <c r="G12">
-        <v>70.32542100000265</v>
+        <v>70.24252077806146</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>69.08872131377511</v>
       </c>
       <c r="I12">
-        <v>23.83150648953929</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>150.7340884889493</v>
+        <v>23.77895412409822</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>150.5648869964432</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.56604688098794</v>
+        <v>12.54565629058074</v>
       </c>
       <c r="D13">
-        <v>11.03395941746759</v>
+        <v>10.98983916381841</v>
       </c>
       <c r="E13">
-        <v>28.74912724377556</v>
+        <v>28.70497722343625</v>
       </c>
       <c r="F13">
-        <v>89.28807908739496</v>
+        <v>88.98059353530576</v>
       </c>
       <c r="G13">
-        <v>70.32542100000265</v>
+        <v>70.24252077806146</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>69.08872131377511</v>
       </c>
       <c r="I13">
-        <v>23.83150648953929</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>150.7340884889493</v>
+        <v>23.77895412409822</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>150.5648869964432</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.56604688098794</v>
+        <v>12.54565629058074</v>
       </c>
       <c r="D14">
-        <v>11.03395941746759</v>
+        <v>10.98983916381841</v>
       </c>
       <c r="E14">
-        <v>28.74912724377556</v>
+        <v>28.70497722343625</v>
       </c>
       <c r="F14">
-        <v>89.28807908739496</v>
+        <v>88.98059353530576</v>
       </c>
       <c r="G14">
-        <v>70.32542100000265</v>
+        <v>70.24252077806146</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>69.08872131377511</v>
       </c>
       <c r="I14">
-        <v>23.83150648953929</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>150.7340884889493</v>
+        <v>23.77895412409822</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>150.5648869964432</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.56604688098794</v>
+        <v>12.54565629058074</v>
       </c>
       <c r="D15">
-        <v>11.03395941746759</v>
+        <v>10.98983916381841</v>
       </c>
       <c r="E15">
-        <v>28.74912724377556</v>
+        <v>28.70497722343625</v>
       </c>
       <c r="F15">
-        <v>89.28807908739496</v>
+        <v>88.98059353530576</v>
       </c>
       <c r="G15">
-        <v>70.32542100000265</v>
+        <v>70.24252077806146</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>69.08872131377511</v>
       </c>
       <c r="I15">
-        <v>23.83150648953929</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>150.7340884889493</v>
+        <v>23.77895412409822</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>150.5648869964432</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.56604688098794</v>
+        <v>12.54565629058074</v>
       </c>
       <c r="D16">
-        <v>11.03395941746759</v>
+        <v>10.98983916381841</v>
       </c>
       <c r="E16">
-        <v>28.74912724377556</v>
+        <v>28.70497722343625</v>
       </c>
       <c r="F16">
-        <v>89.28807908739496</v>
+        <v>88.98059353530576</v>
       </c>
       <c r="G16">
-        <v>70.32542100000265</v>
+        <v>70.24252077806146</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>69.08872131377511</v>
       </c>
       <c r="I16">
-        <v>23.83150648953929</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>150.7340884889493</v>
+        <v>23.77895412409822</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>150.5648869964432</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.56604688098794</v>
+        <v>12.54565629058074</v>
       </c>
       <c r="D17">
-        <v>11.03395941746759</v>
+        <v>10.98983916381841</v>
       </c>
       <c r="E17">
-        <v>28.74912724377556</v>
+        <v>28.70497722343625</v>
       </c>
       <c r="F17">
-        <v>89.28807908739496</v>
+        <v>88.98059353530576</v>
       </c>
       <c r="G17">
-        <v>70.32542100000265</v>
+        <v>70.24252077806146</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>69.08872131377511</v>
       </c>
       <c r="I17">
-        <v>23.83150648953929</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>150.7340884889493</v>
+        <v>23.77895412409822</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>150.5648869964432</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.56604688098794</v>
+        <v>12.54565629058074</v>
       </c>
       <c r="D18">
-        <v>11.03395941746759</v>
+        <v>10.98983916381841</v>
       </c>
       <c r="E18">
-        <v>28.74912724377556</v>
+        <v>28.70497722343625</v>
       </c>
       <c r="F18">
-        <v>89.28807908739496</v>
+        <v>88.98059353530576</v>
       </c>
       <c r="G18">
-        <v>70.32542100000265</v>
+        <v>70.24252077806146</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>69.08872131377511</v>
       </c>
       <c r="I18">
-        <v>23.83150648953929</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>150.7340884889493</v>
+        <v>23.77895412409822</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>150.5648869964432</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.56604688098794</v>
+        <v>12.54565629058074</v>
       </c>
       <c r="D19">
-        <v>11.03395941746759</v>
+        <v>10.98983916381841</v>
       </c>
       <c r="E19">
-        <v>28.74912724377556</v>
+        <v>28.70497722343625</v>
       </c>
       <c r="F19">
-        <v>89.28807908739496</v>
+        <v>88.98059353530576</v>
       </c>
       <c r="G19">
-        <v>70.32542100000265</v>
+        <v>70.24252077806146</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>69.08872131377511</v>
       </c>
       <c r="I19">
-        <v>23.83150648953929</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>150.7340884889493</v>
+        <v>23.77895412409822</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>150.5648869964432</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.56604688098794</v>
+        <v>12.54565629058074</v>
       </c>
       <c r="D20">
-        <v>11.03395941746759</v>
+        <v>10.98983916381841</v>
       </c>
       <c r="E20">
-        <v>28.74912724377556</v>
+        <v>28.70497722343625</v>
       </c>
       <c r="F20">
-        <v>89.28807908739496</v>
+        <v>88.98059353530576</v>
       </c>
       <c r="G20">
-        <v>70.32542100000265</v>
+        <v>70.24252077806146</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>69.08872131377511</v>
       </c>
       <c r="I20">
-        <v>23.83150648953929</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>150.7340884889493</v>
+        <v>23.77895412409822</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>150.5648869964432</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.56604688098794</v>
+        <v>12.54565629058074</v>
       </c>
       <c r="D21">
-        <v>11.03395941746759</v>
+        <v>10.98983916381841</v>
       </c>
       <c r="E21">
-        <v>28.74912724377556</v>
+        <v>28.70497722343625</v>
       </c>
       <c r="F21">
-        <v>89.28807908739496</v>
+        <v>88.98059353530576</v>
       </c>
       <c r="G21">
-        <v>70.32542100000265</v>
+        <v>70.24252077806146</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>69.08872131377511</v>
       </c>
       <c r="I21">
-        <v>23.83150648953929</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>150.7340884889493</v>
+        <v>23.77895412409822</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>150.5648869964432</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.56604688098794</v>
+        <v>12.54565629058074</v>
       </c>
       <c r="D22">
-        <v>11.03395941746759</v>
+        <v>10.98983916381841</v>
       </c>
       <c r="E22">
-        <v>28.74912724377556</v>
+        <v>28.70497722343625</v>
       </c>
       <c r="F22">
-        <v>89.28807908739496</v>
+        <v>88.98059353530576</v>
       </c>
       <c r="G22">
-        <v>70.32542100000265</v>
+        <v>70.24252077806146</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>69.08872131377511</v>
       </c>
       <c r="I22">
-        <v>23.83150648953929</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>150.7340884889493</v>
+        <v>23.77895412409822</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>150.5648869964432</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.56604688098794</v>
+        <v>12.54565629058074</v>
       </c>
       <c r="D23">
-        <v>11.03395941746759</v>
+        <v>10.98983916381841</v>
       </c>
       <c r="E23">
-        <v>28.74912724377556</v>
+        <v>28.70497722343625</v>
       </c>
       <c r="F23">
-        <v>89.28807908739496</v>
+        <v>88.98059353530576</v>
       </c>
       <c r="G23">
-        <v>70.32542100000265</v>
+        <v>70.24252077806146</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>69.08872131377511</v>
       </c>
       <c r="I23">
-        <v>23.83150648953929</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>150.7340884889493</v>
+        <v>23.77895412409822</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>150.5648869964432</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.56604688098794</v>
+        <v>12.54565629058074</v>
       </c>
       <c r="D24">
-        <v>11.03395941746759</v>
+        <v>10.98983916381841</v>
       </c>
       <c r="E24">
-        <v>28.74912724377556</v>
+        <v>28.70497722343625</v>
       </c>
       <c r="F24">
-        <v>89.28807908739496</v>
+        <v>88.98059353530576</v>
       </c>
       <c r="G24">
-        <v>70.32542100000265</v>
+        <v>70.24252077806146</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>69.08872131377511</v>
       </c>
       <c r="I24">
-        <v>23.83150648953929</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>150.7340884889493</v>
+        <v>23.77895412409822</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>150.5648869964432</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.56604688098794</v>
+        <v>12.54565629058074</v>
       </c>
       <c r="D25">
-        <v>11.03395941746759</v>
+        <v>10.98983916381841</v>
       </c>
       <c r="E25">
-        <v>28.74912724377556</v>
+        <v>28.70497722343625</v>
       </c>
       <c r="F25">
-        <v>89.28807908739496</v>
+        <v>88.98059353530576</v>
       </c>
       <c r="G25">
-        <v>70.32542100000265</v>
+        <v>70.24252077806146</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>69.08872131377511</v>
       </c>
       <c r="I25">
-        <v>23.83150648953929</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>150.7340884889493</v>
+        <v>23.77895412409822</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>150.5648869964432</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.030935553614317</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.196208212299959</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>18.33987849252877</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>45.71313539509122</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>35.24491353227157</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>34.35009529796286</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>14.34897384112018</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>103.2562116259016</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,8 +456,14 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.333070855443739</v>
+        <v>3.033964353165571</v>
       </c>
       <c r="D3">
-        <v>4.510217075473218</v>
+        <v>13.90158532086247</v>
       </c>
       <c r="E3">
-        <v>16.75307243925934</v>
+        <v>12.60989402679684</v>
       </c>
       <c r="F3">
-        <v>40.35332111383667</v>
+        <v>69.2969295938088</v>
       </c>
       <c r="G3">
-        <v>30.923589201142</v>
+        <v>1.897372450744759</v>
       </c>
       <c r="H3">
-        <v>30.13551278759484</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>13.02134289219872</v>
+        <v>5.322573671551848</v>
       </c>
       <c r="K3">
-        <v>95.07963266092946</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9.987443112738816</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>94.60196154951875</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.904653933200139</v>
+        <v>3.230520872072633</v>
       </c>
       <c r="D4">
-        <v>4.113434504969328</v>
+        <v>12.44305731462306</v>
       </c>
       <c r="E4">
-        <v>15.77842186213988</v>
+        <v>11.69101295504889</v>
       </c>
       <c r="F4">
-        <v>37.24233630219896</v>
+        <v>63.24933104738347</v>
       </c>
       <c r="G4">
-        <v>28.41399639892071</v>
+        <v>1.978702571960945</v>
       </c>
       <c r="H4">
-        <v>27.70737890509369</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.21769384502572</v>
+        <v>4.767874703827725</v>
       </c>
       <c r="K4">
-        <v>89.97356786244343</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>9.377488433096334</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>88.1738749155742</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.728978230085095</v>
+        <v>3.305464990427898</v>
       </c>
       <c r="D5">
-        <v>3.955952835381946</v>
+        <v>11.93703585660065</v>
       </c>
       <c r="E5">
-        <v>15.37859962018299</v>
+        <v>11.34651104167458</v>
       </c>
       <c r="F5">
-        <v>36.00772645311542</v>
+        <v>61.66057060636309</v>
       </c>
       <c r="G5">
-        <v>27.41745324840292</v>
+        <v>2.007037140633253</v>
       </c>
       <c r="H5">
-        <v>26.74840406790177</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.89048559000853</v>
+        <v>4.570522828443006</v>
       </c>
       <c r="K5">
-        <v>87.86158000413641</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>9.152254675320268</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>85.7939357972014</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.699715326376817</v>
+        <v>3.317694080074994</v>
       </c>
       <c r="D6">
-        <v>3.930012241029472</v>
+        <v>11.86353494582857</v>
       </c>
       <c r="E6">
-        <v>15.311989837759</v>
+        <v>11.29040653571052</v>
       </c>
       <c r="F6">
-        <v>35.80445313098175</v>
+        <v>61.42538416261504</v>
       </c>
       <c r="G6">
-        <v>27.25333325111373</v>
+        <v>2.01155128996573</v>
       </c>
       <c r="H6">
-        <v>26.5907984986176</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.83610912564314</v>
+        <v>4.538877112126722</v>
       </c>
       <c r="K6">
-        <v>87.50877005399526</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>9.115764125104798</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>85.40698910112414</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.902290349682318</v>
+        <v>3.231547647201065</v>
       </c>
       <c r="D7">
-        <v>4.111295712096236</v>
+        <v>12.43596515374892</v>
       </c>
       <c r="E7">
-        <v>15.77304322029942</v>
+        <v>11.68628168266144</v>
       </c>
       <c r="F7">
-        <v>37.22556439972497</v>
+        <v>63.22580157942063</v>
       </c>
       <c r="G7">
-        <v>28.40046135327158</v>
+        <v>1.979099099296773</v>
       </c>
       <c r="H7">
-        <v>27.69433227357846</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.21328269242603</v>
+        <v>4.765127904808242</v>
       </c>
       <c r="K7">
-        <v>89.94522199792119</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>9.374381829515894</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>88.14114522549276</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.789498199433333</v>
+        <v>2.783179975859476</v>
       </c>
       <c r="D8">
-        <v>4.953220937998291</v>
+        <v>16.24285261471091</v>
       </c>
       <c r="E8">
-        <v>17.790977855623</v>
+        <v>13.8839305243523</v>
       </c>
       <c r="F8">
-        <v>43.81873520015795</v>
+        <v>81.23474728732697</v>
       </c>
       <c r="G8">
-        <v>33.71769541681386</v>
+        <v>1.767088163215901</v>
       </c>
       <c r="H8">
-        <v>32.85657870636567</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.88693108282177</v>
+        <v>6.175747259207149</v>
       </c>
       <c r="K8">
-        <v>100.4477775813572</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.85329093623568</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>104.1121308141174</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.61457057858073</v>
+        <v>2.783179975859476</v>
       </c>
       <c r="D9">
-        <v>6.945870167393347</v>
+        <v>16.24285261471091</v>
       </c>
       <c r="E9">
-        <v>21.94194735487633</v>
+        <v>13.8839305243523</v>
       </c>
       <c r="F9">
-        <v>59.16548629317272</v>
+        <v>81.23474728732697</v>
       </c>
       <c r="G9">
-        <v>46.09644931261532</v>
+        <v>1.767088163215901</v>
       </c>
       <c r="H9">
-        <v>45.0450827711803</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>17.46206917514492</v>
+        <v>6.175747259207149</v>
       </c>
       <c r="K9">
-        <v>121.0887025724914</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.85329093623568</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>104.1121308141174</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.30171544287934</v>
+        <v>2.783179975859476</v>
       </c>
       <c r="D10">
-        <v>9.133941922657229</v>
+        <v>16.24285261471091</v>
       </c>
       <c r="E10">
-        <v>25.80363280645633</v>
+        <v>13.8839305243523</v>
       </c>
       <c r="F10">
-        <v>75.49465824648462</v>
+        <v>81.23474728732697</v>
       </c>
       <c r="G10">
-        <v>59.30241139275195</v>
+        <v>1.767088163215901</v>
       </c>
       <c r="H10">
-        <v>58.17002411206362</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>20.98263508838779</v>
+        <v>6.175747259207149</v>
       </c>
       <c r="K10">
-        <v>138.7375679569437</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.85329093623568</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>104.1121308141174</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.54565629058074</v>
+        <v>2.783179975859476</v>
       </c>
       <c r="D11">
-        <v>10.98983916381841</v>
+        <v>16.24285261471091</v>
       </c>
       <c r="E11">
-        <v>28.70497722343625</v>
+        <v>13.8839305243523</v>
       </c>
       <c r="F11">
-        <v>88.98059353530576</v>
+        <v>81.23474728732697</v>
       </c>
       <c r="G11">
-        <v>70.24252077806146</v>
+        <v>1.767088163215901</v>
       </c>
       <c r="H11">
-        <v>69.08872131377511</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>23.77895412409822</v>
+        <v>6.175747259207149</v>
       </c>
       <c r="K11">
-        <v>150.5648869964432</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.85329093623568</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>104.1121308141174</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.54565629058074</v>
+        <v>2.783179975859476</v>
       </c>
       <c r="D12">
-        <v>10.98983916381841</v>
+        <v>16.24285261471091</v>
       </c>
       <c r="E12">
-        <v>28.70497722343625</v>
+        <v>13.8839305243523</v>
       </c>
       <c r="F12">
-        <v>88.98059353530576</v>
+        <v>81.23474728732697</v>
       </c>
       <c r="G12">
-        <v>70.24252077806146</v>
+        <v>1.767088163215901</v>
       </c>
       <c r="H12">
-        <v>69.08872131377511</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23.77895412409822</v>
+        <v>6.175747259207149</v>
       </c>
       <c r="K12">
-        <v>150.5648869964432</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.85329093623568</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>104.1121308141174</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.54565629058074</v>
+        <v>2.783179975859476</v>
       </c>
       <c r="D13">
-        <v>10.98983916381841</v>
+        <v>16.24285261471091</v>
       </c>
       <c r="E13">
-        <v>28.70497722343625</v>
+        <v>13.8839305243523</v>
       </c>
       <c r="F13">
-        <v>88.98059353530576</v>
+        <v>81.23474728732697</v>
       </c>
       <c r="G13">
-        <v>70.24252077806146</v>
+        <v>1.767088163215901</v>
       </c>
       <c r="H13">
-        <v>69.08872131377511</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>23.77895412409822</v>
+        <v>6.175747259207149</v>
       </c>
       <c r="K13">
-        <v>150.5648869964432</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.85329093623568</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>104.1121308141174</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.54565629058074</v>
+        <v>2.783179975859476</v>
       </c>
       <c r="D14">
-        <v>10.98983916381841</v>
+        <v>16.24285261471091</v>
       </c>
       <c r="E14">
-        <v>28.70497722343625</v>
+        <v>13.8839305243523</v>
       </c>
       <c r="F14">
-        <v>88.98059353530576</v>
+        <v>81.23474728732697</v>
       </c>
       <c r="G14">
-        <v>70.24252077806146</v>
+        <v>1.767088163215901</v>
       </c>
       <c r="H14">
-        <v>69.08872131377511</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>23.77895412409822</v>
+        <v>6.175747259207149</v>
       </c>
       <c r="K14">
-        <v>150.5648869964432</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.85329093623568</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>104.1121308141174</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.54565629058074</v>
+        <v>2.783179975859476</v>
       </c>
       <c r="D15">
-        <v>10.98983916381841</v>
+        <v>16.24285261471091</v>
       </c>
       <c r="E15">
-        <v>28.70497722343625</v>
+        <v>13.8839305243523</v>
       </c>
       <c r="F15">
-        <v>88.98059353530576</v>
+        <v>81.23474728732697</v>
       </c>
       <c r="G15">
-        <v>70.24252077806146</v>
+        <v>1.767088163215901</v>
       </c>
       <c r="H15">
-        <v>69.08872131377511</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>23.77895412409822</v>
+        <v>6.175747259207149</v>
       </c>
       <c r="K15">
-        <v>150.5648869964432</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.85329093623568</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>104.1121308141174</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.54565629058074</v>
+        <v>2.783179975859476</v>
       </c>
       <c r="D16">
-        <v>10.98983916381841</v>
+        <v>16.24285261471091</v>
       </c>
       <c r="E16">
-        <v>28.70497722343625</v>
+        <v>13.8839305243523</v>
       </c>
       <c r="F16">
-        <v>88.98059353530576</v>
+        <v>81.23474728732697</v>
       </c>
       <c r="G16">
-        <v>70.24252077806146</v>
+        <v>1.767088163215901</v>
       </c>
       <c r="H16">
-        <v>69.08872131377511</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>23.77895412409822</v>
+        <v>6.175747259207149</v>
       </c>
       <c r="K16">
-        <v>150.5648869964432</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.85329093623568</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>104.1121308141174</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.54565629058074</v>
+        <v>2.783179975859476</v>
       </c>
       <c r="D17">
-        <v>10.98983916381841</v>
+        <v>16.24285261471091</v>
       </c>
       <c r="E17">
-        <v>28.70497722343625</v>
+        <v>13.8839305243523</v>
       </c>
       <c r="F17">
-        <v>88.98059353530576</v>
+        <v>81.23474728732697</v>
       </c>
       <c r="G17">
-        <v>70.24252077806146</v>
+        <v>1.767088163215901</v>
       </c>
       <c r="H17">
-        <v>69.08872131377511</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>23.77895412409822</v>
+        <v>6.175747259207149</v>
       </c>
       <c r="K17">
-        <v>150.5648869964432</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.85329093623568</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>104.1121308141174</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.54565629058074</v>
+        <v>2.783179975859476</v>
       </c>
       <c r="D18">
-        <v>10.98983916381841</v>
+        <v>16.24285261471091</v>
       </c>
       <c r="E18">
-        <v>28.70497722343625</v>
+        <v>13.8839305243523</v>
       </c>
       <c r="F18">
-        <v>88.98059353530576</v>
+        <v>81.23474728732697</v>
       </c>
       <c r="G18">
-        <v>70.24252077806146</v>
+        <v>1.767088163215901</v>
       </c>
       <c r="H18">
-        <v>69.08872131377511</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>23.77895412409822</v>
+        <v>6.175747259207149</v>
       </c>
       <c r="K18">
-        <v>150.5648869964432</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.85329093623568</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>104.1121308141174</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.54565629058074</v>
+        <v>2.783179975859476</v>
       </c>
       <c r="D19">
-        <v>10.98983916381841</v>
+        <v>16.24285261471091</v>
       </c>
       <c r="E19">
-        <v>28.70497722343625</v>
+        <v>13.8839305243523</v>
       </c>
       <c r="F19">
-        <v>88.98059353530576</v>
+        <v>81.23474728732697</v>
       </c>
       <c r="G19">
-        <v>70.24252077806146</v>
+        <v>1.767088163215901</v>
       </c>
       <c r="H19">
-        <v>69.08872131377511</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>23.77895412409822</v>
+        <v>6.175747259207149</v>
       </c>
       <c r="K19">
-        <v>150.5648869964432</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.85329093623568</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>104.1121308141174</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.54565629058074</v>
+        <v>2.783179975859476</v>
       </c>
       <c r="D20">
-        <v>10.98983916381841</v>
+        <v>16.24285261471091</v>
       </c>
       <c r="E20">
-        <v>28.70497722343625</v>
+        <v>13.8839305243523</v>
       </c>
       <c r="F20">
-        <v>88.98059353530576</v>
+        <v>81.23474728732697</v>
       </c>
       <c r="G20">
-        <v>70.24252077806146</v>
+        <v>1.767088163215901</v>
       </c>
       <c r="H20">
-        <v>69.08872131377511</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>23.77895412409822</v>
+        <v>6.175747259207149</v>
       </c>
       <c r="K20">
-        <v>150.5648869964432</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.85329093623568</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>104.1121308141174</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.54565629058074</v>
+        <v>2.783179975859476</v>
       </c>
       <c r="D21">
-        <v>10.98983916381841</v>
+        <v>16.24285261471091</v>
       </c>
       <c r="E21">
-        <v>28.70497722343625</v>
+        <v>13.8839305243523</v>
       </c>
       <c r="F21">
-        <v>88.98059353530576</v>
+        <v>81.23474728732697</v>
       </c>
       <c r="G21">
-        <v>70.24252077806146</v>
+        <v>1.767088163215901</v>
       </c>
       <c r="H21">
-        <v>69.08872131377511</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>23.77895412409822</v>
+        <v>6.175747259207149</v>
       </c>
       <c r="K21">
-        <v>150.5648869964432</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.85329093623568</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>104.1121308141174</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.54565629058074</v>
+        <v>2.783179975859476</v>
       </c>
       <c r="D22">
-        <v>10.98983916381841</v>
+        <v>16.24285261471091</v>
       </c>
       <c r="E22">
-        <v>28.70497722343625</v>
+        <v>13.8839305243523</v>
       </c>
       <c r="F22">
-        <v>88.98059353530576</v>
+        <v>81.23474728732697</v>
       </c>
       <c r="G22">
-        <v>70.24252077806146</v>
+        <v>1.767088163215901</v>
       </c>
       <c r="H22">
-        <v>69.08872131377511</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>23.77895412409822</v>
+        <v>6.175747259207149</v>
       </c>
       <c r="K22">
-        <v>150.5648869964432</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.85329093623568</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>104.1121308141174</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.54565629058074</v>
+        <v>2.783179975859476</v>
       </c>
       <c r="D23">
-        <v>10.98983916381841</v>
+        <v>16.24285261471091</v>
       </c>
       <c r="E23">
-        <v>28.70497722343625</v>
+        <v>13.8839305243523</v>
       </c>
       <c r="F23">
-        <v>88.98059353530576</v>
+        <v>81.23474728732697</v>
       </c>
       <c r="G23">
-        <v>70.24252077806146</v>
+        <v>1.767088163215901</v>
       </c>
       <c r="H23">
-        <v>69.08872131377511</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>23.77895412409822</v>
+        <v>6.175747259207149</v>
       </c>
       <c r="K23">
-        <v>150.5648869964432</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.85329093623568</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>104.1121308141174</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.54565629058074</v>
+        <v>2.783179975859476</v>
       </c>
       <c r="D24">
-        <v>10.98983916381841</v>
+        <v>16.24285261471091</v>
       </c>
       <c r="E24">
-        <v>28.70497722343625</v>
+        <v>13.8839305243523</v>
       </c>
       <c r="F24">
-        <v>88.98059353530576</v>
+        <v>81.23474728732697</v>
       </c>
       <c r="G24">
-        <v>70.24252077806146</v>
+        <v>1.767088163215901</v>
       </c>
       <c r="H24">
-        <v>69.08872131377511</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>23.77895412409822</v>
+        <v>6.175747259207149</v>
       </c>
       <c r="K24">
-        <v>150.5648869964432</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.85329093623568</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>104.1121308141174</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.54565629058074</v>
+        <v>2.783179975859476</v>
       </c>
       <c r="D25">
-        <v>10.98983916381841</v>
+        <v>16.24285261471091</v>
       </c>
       <c r="E25">
-        <v>28.70497722343625</v>
+        <v>13.8839305243523</v>
       </c>
       <c r="F25">
-        <v>88.98059353530576</v>
+        <v>81.23474728732697</v>
       </c>
       <c r="G25">
-        <v>70.24252077806146</v>
+        <v>1.767088163215901</v>
       </c>
       <c r="H25">
-        <v>69.08872131377511</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>23.77895412409822</v>
+        <v>6.175747259207149</v>
       </c>
       <c r="K25">
-        <v>150.5648869964432</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.85329093623568</v>
       </c>
       <c r="M25">
+        <v>104.1121308141174</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7.228130662840133</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.129176100443989</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>11.98865745107696</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>17.01108801300561</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>21.37367711426365</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.778298250064039</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.91626765474794</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>17.56807870928555</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>11.55389408259246</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.9231219989849</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.033964353165571</v>
+        <v>6.730623874628039</v>
       </c>
       <c r="D3">
-        <v>13.90158532086247</v>
+        <v>3.963042869302934</v>
       </c>
       <c r="E3">
-        <v>12.60989402679684</v>
+        <v>11.35017815975408</v>
       </c>
       <c r="F3">
-        <v>69.2969295938088</v>
+        <v>16.38922510980369</v>
       </c>
       <c r="G3">
-        <v>1.897372450744759</v>
+        <v>20.41583699457841</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.751114220449325</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.322573671551848</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.85432657309273</v>
       </c>
       <c r="L3">
-        <v>9.987443112738816</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>94.60196154951875</v>
+        <v>16.43746918229133</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>11.64748417544391</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.67658175740164</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.230520872072633</v>
+        <v>6.40778599875709</v>
       </c>
       <c r="D4">
-        <v>12.44305731462306</v>
+        <v>3.856894494738313</v>
       </c>
       <c r="E4">
-        <v>11.69101295504889</v>
+        <v>10.95459014405306</v>
       </c>
       <c r="F4">
-        <v>63.24933104738347</v>
+        <v>16.01388252768812</v>
       </c>
       <c r="G4">
-        <v>1.978702571960945</v>
+        <v>19.8339502292092</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.741075112685157</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.767874703827725</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.16675887204592</v>
       </c>
       <c r="L4">
-        <v>9.377488433096334</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>88.1738749155742</v>
+        <v>15.70535696072884</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>11.70856472573673</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.53745066158212</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.305464990427898</v>
+        <v>6.271828586111762</v>
       </c>
       <c r="D5">
-        <v>11.93703585660065</v>
+        <v>3.812633570285352</v>
       </c>
       <c r="E5">
-        <v>11.34651104167458</v>
+        <v>10.79269974879645</v>
       </c>
       <c r="F5">
-        <v>61.66057060636309</v>
+        <v>15.86277723094555</v>
       </c>
       <c r="G5">
-        <v>2.007037140633253</v>
+        <v>19.59876889496732</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.738598316604267</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.570522828443006</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.87769709271621</v>
       </c>
       <c r="L5">
-        <v>9.152254675320268</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>85.7939357972014</v>
+        <v>15.39745526675951</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>11.73434706602076</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.48381171871144</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.317694080074994</v>
+        <v>6.248986403369186</v>
       </c>
       <c r="D6">
-        <v>11.86353494582857</v>
+        <v>3.805224584240915</v>
       </c>
       <c r="E6">
-        <v>11.29040653571052</v>
+        <v>10.76578343742683</v>
       </c>
       <c r="F6">
-        <v>61.42538416261504</v>
+        <v>15.83780459674268</v>
       </c>
       <c r="G6">
-        <v>2.01155128996573</v>
+        <v>19.55984604752024</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.738282800028319</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.538877112126722</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.82916503328768</v>
       </c>
       <c r="L6">
-        <v>9.115764125104798</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>85.40698910112414</v>
+        <v>15.34575050752638</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>11.73868156120679</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.47508884544866</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.231547647201065</v>
+        <v>6.405970279595766</v>
       </c>
       <c r="D7">
-        <v>12.43596515374892</v>
+        <v>3.85630159140803</v>
       </c>
       <c r="E7">
-        <v>11.68628168266144</v>
+        <v>10.9524093033403</v>
       </c>
       <c r="F7">
-        <v>63.22580157942063</v>
+        <v>16.01183688304182</v>
       </c>
       <c r="G7">
-        <v>1.979099099296773</v>
+        <v>19.83077010989168</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.741035252285575</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.765127904808242</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.16289630791855</v>
       </c>
       <c r="L7">
-        <v>9.374381829515894</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>88.14114522549276</v>
+        <v>15.70124322467432</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>11.70890884791759</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.53671492319629</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.783179975859476</v>
+        <v>7.060175713206758</v>
       </c>
       <c r="D8">
-        <v>16.24285261471091</v>
+        <v>4.07277356361014</v>
       </c>
       <c r="E8">
-        <v>13.8839305243523</v>
+        <v>11.76936308146253</v>
       </c>
       <c r="F8">
-        <v>81.23474728732697</v>
+        <v>16.79545268676041</v>
       </c>
       <c r="G8">
-        <v>1.767088163215901</v>
+        <v>21.042336044448</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.767509939253638</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.175747259207149</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.55751519018385</v>
       </c>
       <c r="L8">
-        <v>10.85329093623568</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>104.1121308141174</v>
+        <v>17.18609360871898</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>11.58540233516491</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.83556442128995</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.783179975859476</v>
+        <v>8.206718559150167</v>
       </c>
       <c r="D9">
-        <v>16.24285261471091</v>
+        <v>4.463044440009804</v>
       </c>
       <c r="E9">
-        <v>13.8839305243523</v>
+        <v>13.33585497029453</v>
       </c>
       <c r="F9">
-        <v>81.23474728732697</v>
+        <v>18.37455618796803</v>
       </c>
       <c r="G9">
-        <v>1.767088163215901</v>
+        <v>23.45298305063817</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.874724567037518</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.175747259207149</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20.00881784216768</v>
       </c>
       <c r="L9">
-        <v>10.85329093623568</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>104.1121308141174</v>
+        <v>19.79889310450773</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>11.37277418103168</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.51914335530434</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.783179975859476</v>
+        <v>8.968012962516422</v>
       </c>
       <c r="D10">
-        <v>16.24285261471091</v>
+        <v>4.727402625349875</v>
       </c>
       <c r="E10">
-        <v>13.8839305243523</v>
+        <v>14.62649036921118</v>
       </c>
       <c r="F10">
-        <v>81.23474728732697</v>
+        <v>19.54981479999075</v>
       </c>
       <c r="G10">
-        <v>1.767088163215901</v>
+        <v>25.22868982558188</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.990493345686484</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.175747259207149</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.63607960056416</v>
       </c>
       <c r="L10">
-        <v>10.85329093623568</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>104.1121308141174</v>
+        <v>21.53957218408873</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11.2359258508962</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.08071892646982</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.783179975859476</v>
+        <v>9.297202515588779</v>
       </c>
       <c r="D11">
-        <v>16.24285261471091</v>
+        <v>4.842570006735456</v>
       </c>
       <c r="E11">
-        <v>13.8839305243523</v>
+        <v>15.21994655907715</v>
       </c>
       <c r="F11">
-        <v>81.23474728732697</v>
+        <v>20.08590433042428</v>
       </c>
       <c r="G11">
-        <v>1.767088163215901</v>
+        <v>26.03492125893044</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.051848451910551</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.175747259207149</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.33875662017124</v>
       </c>
       <c r="L11">
-        <v>10.85329093623568</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>104.1121308141174</v>
+        <v>22.29350101257231</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>11.17821248064419</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.34892615154341</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.783179975859476</v>
+        <v>9.419433884411829</v>
       </c>
       <c r="D12">
-        <v>16.24285261471091</v>
+        <v>4.885433461920804</v>
       </c>
       <c r="E12">
-        <v>13.8839305243523</v>
+        <v>15.44173987645878</v>
       </c>
       <c r="F12">
-        <v>81.23474728732697</v>
+        <v>20.28899588396445</v>
       </c>
       <c r="G12">
-        <v>1.767088163215901</v>
+        <v>26.33984410384893</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.076382009487567</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.175747259207149</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>22.59946148514216</v>
       </c>
       <c r="L12">
-        <v>10.85329093623568</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>104.1121308141174</v>
+        <v>22.57362587450592</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>11.15704231745505</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.45230345156557</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.783179975859476</v>
+        <v>9.393216440991729</v>
       </c>
       <c r="D13">
-        <v>16.24285261471091</v>
+        <v>4.876235536514442</v>
       </c>
       <c r="E13">
-        <v>13.8839305243523</v>
+        <v>15.39410157009478</v>
       </c>
       <c r="F13">
-        <v>81.23474728732697</v>
+        <v>20.24525434575607</v>
       </c>
       <c r="G13">
-        <v>1.767088163215901</v>
+        <v>26.27419239748316</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.071039693533685</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.175747259207149</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.54355306156759</v>
       </c>
       <c r="L13">
-        <v>10.85329093623568</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>104.1121308141174</v>
+        <v>22.51353350886072</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>11.1615707025501</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.42995896995142</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.783179975859476</v>
+        <v>9.307306957280256</v>
       </c>
       <c r="D14">
-        <v>16.24285261471091</v>
+        <v>4.846111479333993</v>
       </c>
       <c r="E14">
-        <v>13.8839305243523</v>
+        <v>15.23825185226442</v>
       </c>
       <c r="F14">
-        <v>81.23474728732697</v>
+        <v>20.10261168480094</v>
       </c>
       <c r="G14">
-        <v>1.767088163215901</v>
+        <v>26.06001578479287</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.053840516596345</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.175747259207149</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>22.36031271937097</v>
       </c>
       <c r="L14">
-        <v>10.85329093623568</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>104.1121308141174</v>
+        <v>22.31665421877833</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>11.17645688442286</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.35739483843341</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.783179975859476</v>
+        <v>9.254370167736337</v>
       </c>
       <c r="D15">
-        <v>16.24285261471091</v>
+        <v>4.827561799870923</v>
       </c>
       <c r="E15">
-        <v>13.8839305243523</v>
+        <v>15.1424102387124</v>
       </c>
       <c r="F15">
-        <v>81.23474728732697</v>
+        <v>20.01524692280866</v>
       </c>
       <c r="G15">
-        <v>1.767088163215901</v>
+        <v>25.92877313644342</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.043476226796768</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.175747259207149</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>22.2473723384899</v>
       </c>
       <c r="L15">
-        <v>10.85329093623568</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>104.1121308141174</v>
+        <v>22.19536295304399</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>11.18566525649508</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.3131827505686</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.783179975859476</v>
+        <v>8.946158165523384</v>
       </c>
       <c r="D16">
-        <v>16.24285261471091</v>
+        <v>4.719772301904166</v>
       </c>
       <c r="E16">
-        <v>13.8839305243523</v>
+        <v>14.58729015584771</v>
       </c>
       <c r="F16">
-        <v>81.23474728732697</v>
+        <v>19.51479827436244</v>
       </c>
       <c r="G16">
-        <v>1.767088163215901</v>
+        <v>25.17595508868632</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.986662856196301</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.175747259207149</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21.58940337093341</v>
       </c>
       <c r="L16">
-        <v>10.85329093623568</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>104.1121308141174</v>
+        <v>21.4895449121391</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.2397915595599</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.06344572639551</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.783179975859476</v>
+        <v>8.75271951966489</v>
       </c>
       <c r="D17">
-        <v>16.24285261471091</v>
+        <v>4.652330835855604</v>
       </c>
       <c r="E17">
-        <v>13.8839305243523</v>
+        <v>14.2414040785732</v>
       </c>
       <c r="F17">
-        <v>81.23474728732697</v>
+        <v>19.20806661378325</v>
       </c>
       <c r="G17">
-        <v>1.767088163215901</v>
+        <v>24.71360288231159</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.95407200221106</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.175747259207149</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.1761480564382</v>
       </c>
       <c r="L17">
-        <v>10.85329093623568</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>104.1121308141174</v>
+        <v>21.04689218285645</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11.27418073863211</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.91349038764738</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.783179975859476</v>
+        <v>8.63984433357342</v>
       </c>
       <c r="D18">
-        <v>16.24285261471091</v>
+        <v>4.613061894870661</v>
       </c>
       <c r="E18">
-        <v>13.8839305243523</v>
+        <v>14.04046731607247</v>
       </c>
       <c r="F18">
-        <v>81.23474728732697</v>
+        <v>19.03178574348217</v>
       </c>
       <c r="G18">
-        <v>1.767088163215901</v>
+        <v>24.44753097701661</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.936141841387279</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.175747259207149</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>20.93491621715892</v>
       </c>
       <c r="L18">
-        <v>10.85329093623568</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>104.1121308141174</v>
+        <v>20.78871598745401</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.29438569650895</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.82844081761431</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.783179975859476</v>
+        <v>8.601348348079901</v>
       </c>
       <c r="D19">
-        <v>16.24285261471091</v>
+        <v>4.599684476881207</v>
       </c>
       <c r="E19">
-        <v>13.8839305243523</v>
+        <v>13.97208867897099</v>
       </c>
       <c r="F19">
-        <v>81.23474728732697</v>
+        <v>18.97212883380787</v>
       </c>
       <c r="G19">
-        <v>1.767088163215901</v>
+        <v>24.35742525617899</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.930209455485951</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.175747259207149</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.85263112682712</v>
       </c>
       <c r="L19">
-        <v>10.85329093623568</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>104.1121308141174</v>
+        <v>20.70068579819043</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11.30129885587264</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.79985131756694</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.783179975859476</v>
+        <v>8.773478211645829</v>
       </c>
       <c r="D20">
-        <v>16.24285261471091</v>
+        <v>4.659559731884054</v>
       </c>
       <c r="E20">
-        <v>13.8839305243523</v>
+        <v>14.27842977076814</v>
       </c>
       <c r="F20">
-        <v>81.23474728732697</v>
+        <v>19.24070489408577</v>
       </c>
       <c r="G20">
-        <v>1.767088163215901</v>
+        <v>24.76283675148203</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.957456611467912</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.175747259207149</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.22050588330622</v>
       </c>
       <c r="L20">
-        <v>10.85329093623568</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>104.1121308141174</v>
+        <v>21.09438266533502</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11.27047572269157</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.92932925498546</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.783179975859476</v>
+        <v>9.332606180177653</v>
       </c>
       <c r="D21">
-        <v>16.24285261471091</v>
+        <v>4.854980056007603</v>
       </c>
       <c r="E21">
-        <v>13.8839305243523</v>
+        <v>15.28410751417846</v>
       </c>
       <c r="F21">
-        <v>81.23474728732697</v>
+        <v>20.14450781151766</v>
       </c>
       <c r="G21">
-        <v>1.767088163215901</v>
+        <v>26.12293596809443</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.058856671624897</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.175747259207149</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.41428076083256</v>
       </c>
       <c r="L21">
-        <v>10.85329093623568</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>104.1121308141174</v>
+        <v>22.37462754095762</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.17206560253447</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.37865963082558</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2.783179975859476</v>
+        <v>9.683908903183113</v>
       </c>
       <c r="D22">
-        <v>16.24285261471091</v>
+        <v>4.978333655214565</v>
       </c>
       <c r="E22">
-        <v>13.8839305243523</v>
+        <v>15.92432049926574</v>
       </c>
       <c r="F22">
-        <v>81.23474728732697</v>
+        <v>20.73565832620396</v>
       </c>
       <c r="G22">
-        <v>1.767088163215901</v>
+        <v>27.00958736810797</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.132724762227655</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.175747259207149</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>23.16311689778519</v>
       </c>
       <c r="L22">
-        <v>10.85329093623568</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>104.1121308141174</v>
+        <v>23.18007481278143</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.11175643522575</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.6828826152562</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2.783179975859476</v>
+        <v>9.497691286398339</v>
       </c>
       <c r="D23">
-        <v>16.24285261471091</v>
+        <v>4.912901412188184</v>
       </c>
       <c r="E23">
-        <v>13.8839305243523</v>
+        <v>15.58415129361851</v>
       </c>
       <c r="F23">
-        <v>81.23474728732697</v>
+        <v>20.42014184967796</v>
       </c>
       <c r="G23">
-        <v>1.767088163215901</v>
+        <v>26.53661076420318</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.092588911895822</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.175747259207149</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>22.7663100796001</v>
       </c>
       <c r="L23">
-        <v>10.85329093623568</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>104.1121308141174</v>
+        <v>22.7530246382017</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.14356657745662</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.51955309410449</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.783179975859476</v>
+        <v>8.764098395073125</v>
       </c>
       <c r="D24">
-        <v>16.24285261471091</v>
+        <v>4.656293091503644</v>
       </c>
       <c r="E24">
-        <v>13.8839305243523</v>
+        <v>14.26169694827941</v>
       </c>
       <c r="F24">
-        <v>81.23474728732697</v>
+        <v>19.22594892085887</v>
       </c>
       <c r="G24">
-        <v>1.767088163215901</v>
+        <v>24.74057891492177</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.955923920566871</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.175747259207149</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.20046306714852</v>
       </c>
       <c r="L24">
-        <v>10.85329093623568</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>104.1121308141174</v>
+        <v>21.07292371537331</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>11.27214941045764</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.92216488295792</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.783179975859476</v>
+        <v>7.91093703174318</v>
       </c>
       <c r="D25">
-        <v>16.24285261471091</v>
+        <v>4.36130205577456</v>
       </c>
       <c r="E25">
-        <v>13.8839305243523</v>
+        <v>12.91675520334336</v>
       </c>
       <c r="F25">
-        <v>81.23474728732697</v>
+        <v>17.94401197412996</v>
       </c>
       <c r="G25">
-        <v>1.767088163215901</v>
+        <v>22.79899733447414</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.839451922462681</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.175747259207149</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.37617749796449</v>
       </c>
       <c r="L25">
-        <v>10.85329093623568</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>104.1121308141174</v>
+        <v>19.12376288527096</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>11.42699974746882</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.32375546663736</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.228130662840133</v>
+        <v>4.921302983646869</v>
       </c>
       <c r="D2">
-        <v>4.129176100443989</v>
+        <v>4.019281312647894</v>
       </c>
       <c r="E2">
-        <v>11.98865745107696</v>
+        <v>11.81046047891053</v>
       </c>
       <c r="F2">
-        <v>17.01108801300561</v>
+        <v>20.68889916068396</v>
       </c>
       <c r="G2">
-        <v>21.37367711426365</v>
+        <v>22.79351139556342</v>
       </c>
       <c r="H2">
-        <v>7.778298250064039</v>
+        <v>12.600286218835</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.91626765474794</v>
+        <v>11.08017004346835</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.56807870928555</v>
+        <v>14.23151592383905</v>
       </c>
       <c r="N2">
-        <v>11.55389408259246</v>
+        <v>16.5805041349021</v>
       </c>
       <c r="O2">
-        <v>12.9231219989849</v>
+        <v>18.40551535038954</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.730623874628039</v>
+        <v>4.74957993242162</v>
       </c>
       <c r="D3">
-        <v>3.963042869302934</v>
+        <v>3.95813619372516</v>
       </c>
       <c r="E3">
-        <v>11.35017815975408</v>
+        <v>11.70854087759793</v>
       </c>
       <c r="F3">
-        <v>16.38922510980369</v>
+        <v>20.65388348417508</v>
       </c>
       <c r="G3">
-        <v>20.41583699457841</v>
+        <v>22.6961987227487</v>
       </c>
       <c r="H3">
-        <v>7.751114220449325</v>
+        <v>12.63782602291546</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.85432657309273</v>
+        <v>10.52095607215808</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.43746918229133</v>
+        <v>13.94239640711534</v>
       </c>
       <c r="N3">
-        <v>11.64748417544391</v>
+        <v>16.6186984146878</v>
       </c>
       <c r="O3">
-        <v>12.67658175740164</v>
+        <v>18.44096003738967</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.40778599875709</v>
+        <v>4.642368593939826</v>
       </c>
       <c r="D4">
-        <v>3.856894494738313</v>
+        <v>3.919627257571541</v>
       </c>
       <c r="E4">
-        <v>10.95459014405306</v>
+        <v>11.65034441421413</v>
       </c>
       <c r="F4">
-        <v>16.01388252768812</v>
+        <v>20.63924142655172</v>
       </c>
       <c r="G4">
-        <v>19.8339502292092</v>
+        <v>22.64624179187773</v>
       </c>
       <c r="H4">
-        <v>7.741075112685157</v>
+        <v>12.66338828950767</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.16675887204592</v>
+        <v>10.15990018180379</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.70535696072884</v>
+        <v>13.76479395748087</v>
       </c>
       <c r="N4">
-        <v>11.70856472573673</v>
+        <v>16.64387955755739</v>
       </c>
       <c r="O4">
-        <v>12.53745066158212</v>
+        <v>18.46791433421766</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.271828586111762</v>
+        <v>4.598312170439432</v>
       </c>
       <c r="D5">
-        <v>3.812633570285352</v>
+        <v>3.903701856279045</v>
       </c>
       <c r="E5">
-        <v>10.79269974879645</v>
+        <v>11.6277553744019</v>
       </c>
       <c r="F5">
-        <v>15.86277723094555</v>
+        <v>20.63500272172733</v>
       </c>
       <c r="G5">
-        <v>19.59876889496732</v>
+        <v>22.62836227421622</v>
       </c>
       <c r="H5">
-        <v>7.738598316604267</v>
+        <v>12.67443583670337</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.87769709271621</v>
+        <v>10.00841213178984</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.39745526675951</v>
+        <v>13.69250215761628</v>
       </c>
       <c r="N5">
-        <v>11.73434706602076</v>
+        <v>16.65457671512079</v>
       </c>
       <c r="O5">
-        <v>12.48381171871144</v>
+        <v>18.48019946660192</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.248986403369186</v>
+        <v>4.590976902914472</v>
       </c>
       <c r="D6">
-        <v>3.805224584240915</v>
+        <v>3.901043703277796</v>
       </c>
       <c r="E6">
-        <v>10.76578343742683</v>
+        <v>11.62407317932476</v>
       </c>
       <c r="F6">
-        <v>15.83780459674268</v>
+        <v>20.63440332541773</v>
       </c>
       <c r="G6">
-        <v>19.55984604752024</v>
+        <v>22.62554344654709</v>
       </c>
       <c r="H6">
-        <v>7.738282800028319</v>
+        <v>12.676308333643</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.82916503328768</v>
+        <v>9.982997776274143</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.34575050752638</v>
+        <v>13.68050620804364</v>
       </c>
       <c r="N6">
-        <v>11.73868156120679</v>
+        <v>16.65637930194109</v>
       </c>
       <c r="O6">
-        <v>12.47508884544866</v>
+        <v>18.48231784716703</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.405970279595766</v>
+        <v>4.641775810382754</v>
       </c>
       <c r="D7">
-        <v>3.85630159140803</v>
+        <v>3.919413410626607</v>
       </c>
       <c r="E7">
-        <v>10.9524093033403</v>
+        <v>11.65003517914684</v>
       </c>
       <c r="F7">
-        <v>16.01183688304182</v>
+        <v>20.63917726177508</v>
       </c>
       <c r="G7">
-        <v>19.83077010989168</v>
+        <v>22.64599061051542</v>
       </c>
       <c r="H7">
-        <v>7.741035252285575</v>
+        <v>12.66353472837072</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.16289630791855</v>
+        <v>10.15787465455756</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.70124322467432</v>
+        <v>13.76381853244716</v>
       </c>
       <c r="N7">
-        <v>11.70890884791759</v>
+        <v>16.64402205836895</v>
       </c>
       <c r="O7">
-        <v>12.53671492319629</v>
+        <v>18.46807475404751</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.060175713206758</v>
+        <v>4.862506075962624</v>
       </c>
       <c r="D8">
-        <v>4.07277356361014</v>
+        <v>3.998404835094979</v>
       </c>
       <c r="E8">
-        <v>11.76936308146253</v>
+        <v>11.77442450113053</v>
       </c>
       <c r="F8">
-        <v>16.79545268676041</v>
+        <v>20.67540520640143</v>
       </c>
       <c r="G8">
-        <v>21.042336044448</v>
+        <v>22.7579361981757</v>
       </c>
       <c r="H8">
-        <v>7.767509939253638</v>
+        <v>12.61270778015788</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.55751519018385</v>
+        <v>10.89107744523185</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.18609360871898</v>
+        <v>14.131905737837</v>
       </c>
       <c r="N8">
-        <v>11.58540233516491</v>
+        <v>16.59331493479851</v>
       </c>
       <c r="O8">
-        <v>12.83556442128995</v>
+        <v>18.41665681835864</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.206718559150167</v>
+        <v>5.27816186573907</v>
       </c>
       <c r="D9">
-        <v>4.463044440009804</v>
+        <v>4.145220795046396</v>
       </c>
       <c r="E9">
-        <v>13.33585497029453</v>
+        <v>12.05192029866666</v>
       </c>
       <c r="F9">
-        <v>18.37455618796803</v>
+        <v>20.80061098629886</v>
       </c>
       <c r="G9">
-        <v>23.45298305063817</v>
+        <v>23.05425240804665</v>
       </c>
       <c r="H9">
-        <v>7.874724567037518</v>
+        <v>12.53302165336108</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.00881784216768</v>
+        <v>12.18515189761282</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.79889310450773</v>
+        <v>14.84866919298516</v>
       </c>
       <c r="N9">
-        <v>11.37277418103168</v>
+        <v>16.50757260420576</v>
       </c>
       <c r="O9">
-        <v>13.51914335530434</v>
+        <v>18.35718674255263</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.968012962516422</v>
+        <v>5.569336587716885</v>
       </c>
       <c r="D10">
-        <v>4.727402625349875</v>
+        <v>4.247617588009789</v>
       </c>
       <c r="E10">
-        <v>14.62649036921118</v>
+        <v>12.27448084797895</v>
       </c>
       <c r="F10">
-        <v>19.54981479999075</v>
+        <v>20.92515269961422</v>
       </c>
       <c r="G10">
-        <v>25.22868982558188</v>
+        <v>23.31722958267576</v>
       </c>
       <c r="H10">
-        <v>7.990493345686484</v>
+        <v>12.4867237661105</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.63607960056416</v>
+        <v>13.04482813628736</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.53957218408873</v>
+        <v>15.36653580727707</v>
       </c>
       <c r="N10">
-        <v>11.2359258508962</v>
+        <v>16.45288557388182</v>
       </c>
       <c r="O10">
-        <v>14.08071892646982</v>
+        <v>18.33890992031236</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.297202515588779</v>
+        <v>5.698056683464816</v>
       </c>
       <c r="D11">
-        <v>4.842570006735456</v>
+        <v>4.29290704391937</v>
       </c>
       <c r="E11">
-        <v>15.21994655907715</v>
+        <v>12.37936740918842</v>
       </c>
       <c r="F11">
-        <v>20.08590433042428</v>
+        <v>20.9887377783956</v>
       </c>
       <c r="G11">
-        <v>26.03492125893044</v>
+        <v>23.44627827932862</v>
       </c>
       <c r="H11">
-        <v>8.051848451910551</v>
+        <v>12.46833371547136</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.33875662017124</v>
+        <v>13.41563973491201</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.29350101257231</v>
+        <v>15.59911497728084</v>
       </c>
       <c r="N11">
-        <v>11.17821248064419</v>
+        <v>16.42980272734409</v>
       </c>
       <c r="O11">
-        <v>14.34892615154341</v>
+        <v>18.33614534344226</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.419433884411829</v>
+        <v>5.746215687797622</v>
       </c>
       <c r="D12">
-        <v>4.885433461920804</v>
+        <v>4.309862956260027</v>
       </c>
       <c r="E12">
-        <v>15.44173987645878</v>
+        <v>12.41957181466246</v>
       </c>
       <c r="F12">
-        <v>20.28899588396445</v>
+        <v>21.01379749274995</v>
       </c>
       <c r="G12">
-        <v>26.33984410384893</v>
+        <v>23.49645936839601</v>
       </c>
       <c r="H12">
-        <v>8.076382009487567</v>
+        <v>12.46175492637425</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.59946148514216</v>
+        <v>13.55311267159467</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.57362587450592</v>
+        <v>15.68666886370023</v>
       </c>
       <c r="N12">
-        <v>11.15704231745505</v>
+        <v>16.42131929710293</v>
       </c>
       <c r="O12">
-        <v>14.45230345156557</v>
+        <v>18.33589801509326</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.393216440991729</v>
+        <v>5.735870471938187</v>
       </c>
       <c r="D13">
-        <v>4.876235536514442</v>
+        <v>4.306219966149253</v>
       </c>
       <c r="E13">
-        <v>15.39410157009478</v>
+        <v>12.41089206556737</v>
       </c>
       <c r="F13">
-        <v>20.24525434575607</v>
+        <v>21.00835704684131</v>
       </c>
       <c r="G13">
-        <v>26.27419239748316</v>
+        <v>23.48559426429982</v>
       </c>
       <c r="H13">
-        <v>8.071039693533685</v>
+        <v>12.46315464224214</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.54355306156759</v>
+        <v>13.52363684522929</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.51353350886072</v>
+        <v>15.66783697430825</v>
       </c>
       <c r="N13">
-        <v>11.1615707025501</v>
+        <v>16.42313490929946</v>
       </c>
       <c r="O13">
-        <v>14.42995896995142</v>
+        <v>18.33591570376948</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.307306957280256</v>
+        <v>5.702030718247642</v>
       </c>
       <c r="D14">
-        <v>4.846111479333993</v>
+        <v>4.294305956749275</v>
       </c>
       <c r="E14">
-        <v>15.23825185226442</v>
+        <v>12.38266552612622</v>
       </c>
       <c r="F14">
-        <v>20.10261168480094</v>
+        <v>20.99077988039105</v>
       </c>
       <c r="G14">
-        <v>26.06001578479287</v>
+        <v>23.45038063902339</v>
       </c>
       <c r="H14">
-        <v>8.053840516596345</v>
+        <v>12.46778475045204</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.36031271937097</v>
+        <v>13.42700890373686</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.31665421877833</v>
+        <v>15.60632896664877</v>
       </c>
       <c r="N14">
-        <v>11.17645688442286</v>
+        <v>16.42909963177117</v>
       </c>
       <c r="O14">
-        <v>14.35739483843341</v>
+        <v>18.33610896484305</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.254370167736337</v>
+        <v>5.681225468799435</v>
       </c>
       <c r="D15">
-        <v>4.827561799870923</v>
+        <v>4.286982743277949</v>
       </c>
       <c r="E15">
-        <v>15.1424102387124</v>
+        <v>12.36543813044648</v>
       </c>
       <c r="F15">
-        <v>20.01524692280866</v>
+        <v>20.98014068723964</v>
       </c>
       <c r="G15">
-        <v>25.92877313644342</v>
+        <v>23.42898100294332</v>
       </c>
       <c r="H15">
-        <v>8.043476226796768</v>
+        <v>12.47067100916273</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.2473723384899</v>
+        <v>13.36743709788063</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.19536295304399</v>
+        <v>15.56858347381792</v>
       </c>
       <c r="N15">
-        <v>11.18566525649508</v>
+        <v>16.43278672124557</v>
       </c>
       <c r="O15">
-        <v>14.3131827505686</v>
+        <v>18.33633150297511</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.946158165523384</v>
+        <v>5.560845072694863</v>
       </c>
       <c r="D16">
-        <v>4.719772301904166</v>
+        <v>4.244631090975625</v>
       </c>
       <c r="E16">
-        <v>14.58729015584771</v>
+        <v>12.26769636818562</v>
       </c>
       <c r="F16">
-        <v>19.51479827436244</v>
+        <v>20.92113546967013</v>
       </c>
       <c r="G16">
-        <v>25.17595508868632</v>
+        <v>23.30898203165706</v>
       </c>
       <c r="H16">
-        <v>7.986662856196301</v>
+        <v>12.48797943746038</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.58940337093341</v>
+        <v>13.02018414177494</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.4895449121391</v>
+        <v>15.35126824466379</v>
       </c>
       <c r="N16">
-        <v>11.2397915595599</v>
+        <v>16.45443015911152</v>
       </c>
       <c r="O16">
-        <v>14.06344572639551</v>
+        <v>18.33920240998219</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.75271951966489</v>
+        <v>5.486003156993373</v>
       </c>
       <c r="D17">
-        <v>4.652330835855604</v>
+        <v>4.218312766654994</v>
       </c>
       <c r="E17">
-        <v>14.2414040785732</v>
+        <v>12.20864148071719</v>
       </c>
       <c r="F17">
-        <v>19.20806661378325</v>
+        <v>20.88670253713009</v>
       </c>
       <c r="G17">
-        <v>24.71360288231159</v>
+        <v>23.23775073334424</v>
       </c>
       <c r="H17">
-        <v>7.95407200221106</v>
+        <v>12.49928247832246</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.1761480564382</v>
+        <v>12.80194153787989</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.04689218285645</v>
+        <v>15.21712001914969</v>
       </c>
       <c r="N17">
-        <v>11.27418073863211</v>
+        <v>16.46816696687183</v>
       </c>
       <c r="O17">
-        <v>13.91349038764738</v>
+        <v>18.34238630405152</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.63984433357342</v>
+        <v>5.442606790643204</v>
       </c>
       <c r="D18">
-        <v>4.613061894870661</v>
+        <v>4.203054095115915</v>
       </c>
       <c r="E18">
-        <v>14.04046731607247</v>
+        <v>12.1750198683752</v>
       </c>
       <c r="F18">
-        <v>19.03178574348217</v>
+        <v>20.86755097852473</v>
       </c>
       <c r="G18">
-        <v>24.44753097701661</v>
+        <v>23.19766964741035</v>
       </c>
       <c r="H18">
-        <v>7.936141841387279</v>
+        <v>12.50603504704999</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.93491621715892</v>
+        <v>12.67450864795659</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.78871598745401</v>
+        <v>15.13968393589567</v>
       </c>
       <c r="N18">
-        <v>11.29438569650895</v>
+        <v>16.47623695723711</v>
       </c>
       <c r="O18">
-        <v>13.82844081761431</v>
+        <v>18.34473990335316</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.601348348079901</v>
+        <v>5.427855068546394</v>
       </c>
       <c r="D19">
-        <v>4.599684476881207</v>
+        <v>4.197867244845656</v>
       </c>
       <c r="E19">
-        <v>13.97208867897099</v>
+        <v>12.16369658611259</v>
       </c>
       <c r="F19">
-        <v>18.97212883380787</v>
+        <v>20.86117923526217</v>
       </c>
       <c r="G19">
-        <v>24.35742525617899</v>
+        <v>23.18425281473846</v>
       </c>
       <c r="H19">
-        <v>7.930209455485951</v>
+        <v>12.50836448956746</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.85263112682712</v>
+        <v>12.63103588745692</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.70068579819043</v>
+        <v>15.11342048058683</v>
       </c>
       <c r="N19">
-        <v>11.30129885587264</v>
+        <v>16.47899834912915</v>
       </c>
       <c r="O19">
-        <v>13.79985131756694</v>
+        <v>18.34562644149051</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.773478211645829</v>
+        <v>5.494006715022285</v>
       </c>
       <c r="D20">
-        <v>4.659559731884054</v>
+        <v>4.221126990423624</v>
       </c>
       <c r="E20">
-        <v>14.27842977076814</v>
+        <v>12.21489251725463</v>
       </c>
       <c r="F20">
-        <v>19.24070489408577</v>
+        <v>20.89030046583771</v>
       </c>
       <c r="G20">
-        <v>24.76283675148203</v>
+        <v>23.24524167835061</v>
       </c>
       <c r="H20">
-        <v>7.957456611467912</v>
+        <v>12.49805322800771</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.22050588330622</v>
+        <v>12.82537130518994</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.09438266533502</v>
+        <v>15.23142970332026</v>
       </c>
       <c r="N20">
-        <v>11.27047572269157</v>
+        <v>16.46668717913882</v>
       </c>
       <c r="O20">
-        <v>13.92932925498546</v>
+        <v>18.34199330309444</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.332606180177653</v>
+        <v>5.711986485489391</v>
       </c>
       <c r="D21">
-        <v>4.854980056007603</v>
+        <v>4.297810726930003</v>
       </c>
       <c r="E21">
-        <v>15.28410751417846</v>
+        <v>12.39094345638071</v>
       </c>
       <c r="F21">
-        <v>20.14450781151766</v>
+        <v>20.99591621467959</v>
       </c>
       <c r="G21">
-        <v>26.12293596809443</v>
+        <v>23.46068844201947</v>
       </c>
       <c r="H21">
-        <v>8.058856671624897</v>
+        <v>12.46641431545749</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.41428076083256</v>
+        <v>13.45547102865434</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.37462754095762</v>
+        <v>15.6244101086135</v>
       </c>
       <c r="N21">
-        <v>11.17206560253447</v>
+        <v>16.42734066256229</v>
       </c>
       <c r="O21">
-        <v>14.37865963082558</v>
+        <v>18.33603049068762</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.683908903183113</v>
+        <v>5.85102393141529</v>
       </c>
       <c r="D22">
-        <v>4.978333655214565</v>
+        <v>4.346792274520242</v>
       </c>
       <c r="E22">
-        <v>15.92432049926574</v>
+        <v>12.50881842044491</v>
       </c>
       <c r="F22">
-        <v>20.73565832620396</v>
+        <v>21.07065438551432</v>
       </c>
       <c r="G22">
-        <v>27.00958736810797</v>
+        <v>23.60912789301464</v>
       </c>
       <c r="H22">
-        <v>8.132724762227655</v>
+        <v>12.44798168043299</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.16311689778519</v>
+        <v>13.85009975845549</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.18007481278143</v>
+        <v>15.87818487314298</v>
       </c>
       <c r="N22">
-        <v>11.11175643522575</v>
+        <v>16.40312636921344</v>
       </c>
       <c r="O22">
-        <v>14.6828826152562</v>
+        <v>18.33679412567219</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.497691286398339</v>
+        <v>5.777144563159795</v>
       </c>
       <c r="D23">
-        <v>4.912901412188184</v>
+        <v>4.320756517449249</v>
       </c>
       <c r="E23">
-        <v>15.58415129361851</v>
+        <v>12.44566140105676</v>
       </c>
       <c r="F23">
-        <v>20.42014184967796</v>
+        <v>21.0302480365032</v>
       </c>
       <c r="G23">
-        <v>26.53661076420318</v>
+        <v>23.52921909886533</v>
       </c>
       <c r="H23">
-        <v>8.092588911895822</v>
+        <v>12.45761376603367</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.7663100796001</v>
+        <v>13.64105953218002</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.7530246382017</v>
+        <v>15.74304800478574</v>
       </c>
       <c r="N23">
-        <v>11.14356657745662</v>
+        <v>16.41591282335155</v>
       </c>
       <c r="O23">
-        <v>14.51955309410449</v>
+        <v>18.3359597709335</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.764098395073125</v>
+        <v>5.490389451396347</v>
       </c>
       <c r="D24">
-        <v>4.656293091503644</v>
+        <v>4.219855077633369</v>
       </c>
       <c r="E24">
-        <v>14.26169694827941</v>
+        <v>12.21206539340119</v>
       </c>
       <c r="F24">
-        <v>19.22594892085887</v>
+        <v>20.88867183388621</v>
       </c>
       <c r="G24">
-        <v>24.74057891492177</v>
+        <v>23.24185230671673</v>
       </c>
       <c r="H24">
-        <v>7.955923920566871</v>
+        <v>12.49860818000667</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.20046306714852</v>
+        <v>12.81478481709168</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.07292371537331</v>
+        <v>15.22496126171022</v>
       </c>
       <c r="N24">
-        <v>11.27214941045764</v>
+        <v>16.46735565374131</v>
       </c>
       <c r="O24">
-        <v>13.92216488295792</v>
+        <v>18.34216934939203</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.91093703174318</v>
+        <v>5.167966922067204</v>
       </c>
       <c r="D25">
-        <v>4.36130205577456</v>
+        <v>4.106426130059</v>
       </c>
       <c r="E25">
-        <v>12.91675520334336</v>
+        <v>11.97343216735634</v>
       </c>
       <c r="F25">
-        <v>17.94401197412996</v>
+        <v>20.76098121002729</v>
       </c>
       <c r="G25">
-        <v>22.79899733447414</v>
+        <v>22.96601185893479</v>
       </c>
       <c r="H25">
-        <v>7.839451922462681</v>
+        <v>12.55243247238385</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.37617749796449</v>
+        <v>11.85086252460971</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.12376288527096</v>
+        <v>14.65590657925623</v>
       </c>
       <c r="N25">
-        <v>11.42699974746882</v>
+        <v>16.52930636710363</v>
       </c>
       <c r="O25">
-        <v>13.32375546663736</v>
+        <v>18.36882399714512</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.921302983646869</v>
+        <v>7.228130662840152</v>
       </c>
       <c r="D2">
-        <v>4.019281312647894</v>
+        <v>4.129176100444072</v>
       </c>
       <c r="E2">
-        <v>11.81046047891053</v>
+        <v>11.98865745107697</v>
       </c>
       <c r="F2">
-        <v>20.68889916068396</v>
+        <v>17.01108801300557</v>
       </c>
       <c r="G2">
-        <v>22.79351139556342</v>
+        <v>21.37367711426362</v>
       </c>
       <c r="H2">
-        <v>12.600286218835</v>
+        <v>7.77829825006405</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.08017004346835</v>
+        <v>17.91626765474797</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.23151592383905</v>
+        <v>17.56807870928557</v>
       </c>
       <c r="N2">
-        <v>16.5805041349021</v>
+        <v>11.55389408259249</v>
       </c>
       <c r="O2">
-        <v>18.40551535038954</v>
+        <v>12.9231219989849</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.74957993242162</v>
+        <v>6.730623874627942</v>
       </c>
       <c r="D3">
-        <v>3.95813619372516</v>
+        <v>3.963042869303034</v>
       </c>
       <c r="E3">
-        <v>11.70854087759793</v>
+        <v>11.3501781597541</v>
       </c>
       <c r="F3">
-        <v>20.65388348417508</v>
+        <v>16.38922510980363</v>
       </c>
       <c r="G3">
-        <v>22.6961987227487</v>
+        <v>20.4158369945784</v>
       </c>
       <c r="H3">
-        <v>12.63782602291546</v>
+        <v>7.751114220449212</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.52095607215808</v>
+        <v>16.85432657309274</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.94239640711534</v>
+        <v>16.43746918229132</v>
       </c>
       <c r="N3">
-        <v>16.6186984146878</v>
+        <v>11.64748417544391</v>
       </c>
       <c r="O3">
-        <v>18.44096003738967</v>
+        <v>12.67658175740161</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.642368593939826</v>
+        <v>6.407785998757112</v>
       </c>
       <c r="D4">
-        <v>3.919627257571541</v>
+        <v>3.856894494738301</v>
       </c>
       <c r="E4">
-        <v>11.65034441421413</v>
+        <v>10.95459014405305</v>
       </c>
       <c r="F4">
-        <v>20.63924142655172</v>
+        <v>16.0138825276883</v>
       </c>
       <c r="G4">
-        <v>22.64624179187773</v>
+        <v>19.83395022920935</v>
       </c>
       <c r="H4">
-        <v>12.66338828950767</v>
+        <v>7.741075112685303</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.15990018180379</v>
+        <v>16.16675887204591</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.76479395748087</v>
+        <v>15.70535696072881</v>
       </c>
       <c r="N4">
-        <v>16.64387955755739</v>
+        <v>11.7085647257368</v>
       </c>
       <c r="O4">
-        <v>18.46791433421766</v>
+        <v>12.53745066158226</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.598312170439432</v>
+        <v>6.271828586111707</v>
       </c>
       <c r="D5">
-        <v>3.903701856279045</v>
+        <v>3.812633570285305</v>
       </c>
       <c r="E5">
-        <v>11.6277553744019</v>
+        <v>10.79269974879642</v>
       </c>
       <c r="F5">
-        <v>20.63500272172733</v>
+        <v>15.86277723094564</v>
       </c>
       <c r="G5">
-        <v>22.62836227421622</v>
+        <v>19.59876889496745</v>
       </c>
       <c r="H5">
-        <v>12.67443583670337</v>
+        <v>7.738598316604278</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.00841213178984</v>
+        <v>15.87769709271616</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.69250215761628</v>
+        <v>15.39745526675948</v>
       </c>
       <c r="N5">
-        <v>16.65457671512079</v>
+        <v>11.73434706602079</v>
       </c>
       <c r="O5">
-        <v>18.48019946660192</v>
+        <v>12.48381171871153</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.590976902914472</v>
+        <v>6.248986403369226</v>
       </c>
       <c r="D6">
-        <v>3.901043703277796</v>
+        <v>3.805224584240742</v>
       </c>
       <c r="E6">
-        <v>11.62407317932476</v>
+        <v>10.76578343742686</v>
       </c>
       <c r="F6">
-        <v>20.63440332541773</v>
+        <v>15.83780459674272</v>
       </c>
       <c r="G6">
-        <v>22.62554344654709</v>
+        <v>19.55984604752021</v>
       </c>
       <c r="H6">
-        <v>12.676308333643</v>
+        <v>7.738282800028308</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.982997776274143</v>
+        <v>15.82916503328767</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.68050620804364</v>
+        <v>15.34575050752637</v>
       </c>
       <c r="N6">
-        <v>16.65637930194109</v>
+        <v>11.73868156120679</v>
       </c>
       <c r="O6">
-        <v>18.48231784716703</v>
+        <v>12.47508884544865</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.641775810382754</v>
+        <v>6.405970279595734</v>
       </c>
       <c r="D7">
-        <v>3.919413410626607</v>
+        <v>3.856301591407993</v>
       </c>
       <c r="E7">
-        <v>11.65003517914684</v>
+        <v>10.95240930334032</v>
       </c>
       <c r="F7">
-        <v>20.63917726177508</v>
+        <v>16.01183688304165</v>
       </c>
       <c r="G7">
-        <v>22.64599061051542</v>
+        <v>19.8307701098915</v>
       </c>
       <c r="H7">
-        <v>12.66353472837072</v>
+        <v>7.741035252285519</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.15787465455756</v>
+        <v>16.16289630791863</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.76381853244716</v>
+        <v>15.70124322467436</v>
       </c>
       <c r="N7">
-        <v>16.64402205836895</v>
+        <v>11.70890884791752</v>
       </c>
       <c r="O7">
-        <v>18.46807475404751</v>
+        <v>12.53671492319613</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.862506075962624</v>
+        <v>7.060175713206879</v>
       </c>
       <c r="D8">
-        <v>3.998404835094979</v>
+        <v>4.072773563610261</v>
       </c>
       <c r="E8">
-        <v>11.77442450113053</v>
+        <v>11.76936308146253</v>
       </c>
       <c r="F8">
-        <v>20.67540520640143</v>
+        <v>16.79545268676042</v>
       </c>
       <c r="G8">
-        <v>22.7579361981757</v>
+        <v>21.04233604444804</v>
       </c>
       <c r="H8">
-        <v>12.61270778015788</v>
+        <v>7.76750993925365</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.89107744523185</v>
+        <v>17.55751519018381</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.131905737837</v>
+        <v>17.18609360871895</v>
       </c>
       <c r="N8">
-        <v>16.59331493479851</v>
+        <v>11.58540233516485</v>
       </c>
       <c r="O8">
-        <v>18.41665681835864</v>
+        <v>12.83556442128998</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.27816186573907</v>
+        <v>8.206718559150065</v>
       </c>
       <c r="D9">
-        <v>4.145220795046396</v>
+        <v>4.463044440009847</v>
       </c>
       <c r="E9">
-        <v>12.05192029866666</v>
+        <v>13.33585497029453</v>
       </c>
       <c r="F9">
-        <v>20.80061098629886</v>
+        <v>18.37455618796799</v>
       </c>
       <c r="G9">
-        <v>23.05425240804665</v>
+        <v>23.45298305063815</v>
       </c>
       <c r="H9">
-        <v>12.53302165336108</v>
+        <v>7.8747245670375</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.18515189761282</v>
+        <v>20.00881784216763</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.84866919298516</v>
+        <v>19.79889310450774</v>
       </c>
       <c r="N9">
-        <v>16.50757260420576</v>
+        <v>11.37277418103169</v>
       </c>
       <c r="O9">
-        <v>18.35718674255263</v>
+        <v>13.51914335530432</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.569336587716885</v>
+        <v>8.968012962516433</v>
       </c>
       <c r="D10">
-        <v>4.247617588009789</v>
+        <v>4.727402625349915</v>
       </c>
       <c r="E10">
-        <v>12.27448084797895</v>
+        <v>14.62649036921113</v>
       </c>
       <c r="F10">
-        <v>20.92515269961422</v>
+        <v>19.54981479999072</v>
       </c>
       <c r="G10">
-        <v>23.31722958267576</v>
+        <v>25.22868982558185</v>
       </c>
       <c r="H10">
-        <v>12.4867237661105</v>
+        <v>7.990493345686484</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.04482813628736</v>
+        <v>21.63607960056415</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.36653580727707</v>
+        <v>21.53957218408872</v>
       </c>
       <c r="N10">
-        <v>16.45288557388182</v>
+        <v>11.23592585089623</v>
       </c>
       <c r="O10">
-        <v>18.33890992031236</v>
+        <v>14.08071892646982</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.698056683464816</v>
+        <v>9.297202515588864</v>
       </c>
       <c r="D11">
-        <v>4.29290704391937</v>
+        <v>4.842570006735418</v>
       </c>
       <c r="E11">
-        <v>12.37936740918842</v>
+        <v>15.21994655907711</v>
       </c>
       <c r="F11">
-        <v>20.9887377783956</v>
+        <v>20.08590433042427</v>
       </c>
       <c r="G11">
-        <v>23.44627827932862</v>
+        <v>26.03492125893039</v>
       </c>
       <c r="H11">
-        <v>12.46833371547136</v>
+        <v>8.051848451910617</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.41563973491201</v>
+        <v>22.33875662017119</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.59911497728084</v>
+        <v>22.29350101257226</v>
       </c>
       <c r="N11">
-        <v>16.42980272734409</v>
+        <v>11.17821248064425</v>
       </c>
       <c r="O11">
-        <v>18.33614534344226</v>
+        <v>14.34892615154341</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.746215687797622</v>
+        <v>9.419433884411861</v>
       </c>
       <c r="D12">
-        <v>4.309862956260027</v>
+        <v>4.885433461920803</v>
       </c>
       <c r="E12">
-        <v>12.41957181466246</v>
+        <v>15.44173987645875</v>
       </c>
       <c r="F12">
-        <v>21.01379749274995</v>
+        <v>20.28899588396449</v>
       </c>
       <c r="G12">
-        <v>23.49645936839601</v>
+        <v>26.33984410384902</v>
       </c>
       <c r="H12">
-        <v>12.46175492637425</v>
+        <v>8.076382009487574</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.55311267159467</v>
+        <v>22.59946148514216</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.68666886370023</v>
+        <v>22.57362587450589</v>
       </c>
       <c r="N12">
-        <v>16.42131929710293</v>
+        <v>11.15704231745507</v>
       </c>
       <c r="O12">
-        <v>18.33589801509326</v>
+        <v>14.45230345156562</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.735870471938187</v>
+        <v>9.393216440991679</v>
       </c>
       <c r="D13">
-        <v>4.306219966149253</v>
+        <v>4.876235536514456</v>
       </c>
       <c r="E13">
-        <v>12.41089206556737</v>
+        <v>15.39410157009477</v>
       </c>
       <c r="F13">
-        <v>21.00835704684131</v>
+        <v>20.2452543457561</v>
       </c>
       <c r="G13">
-        <v>23.48559426429982</v>
+        <v>26.27419239748321</v>
       </c>
       <c r="H13">
-        <v>12.46315464224214</v>
+        <v>8.071039693533677</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.52363684522929</v>
+        <v>22.54355306156759</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.66783697430825</v>
+        <v>22.51353350886073</v>
       </c>
       <c r="N13">
-        <v>16.42313490929946</v>
+        <v>11.16157070255012</v>
       </c>
       <c r="O13">
-        <v>18.33591570376948</v>
+        <v>14.42995896995143</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.702030718247642</v>
+        <v>9.307306957280321</v>
       </c>
       <c r="D14">
-        <v>4.294305956749275</v>
+        <v>4.846111479334052</v>
       </c>
       <c r="E14">
-        <v>12.38266552612622</v>
+        <v>15.23825185226444</v>
       </c>
       <c r="F14">
-        <v>20.99077988039105</v>
+        <v>20.10261168480089</v>
       </c>
       <c r="G14">
-        <v>23.45038063902339</v>
+        <v>26.06001578479284</v>
       </c>
       <c r="H14">
-        <v>12.46778475045204</v>
+        <v>8.053840516596287</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.42700890373686</v>
+        <v>22.36031271937099</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.60632896664877</v>
+        <v>22.31665421877835</v>
       </c>
       <c r="N14">
-        <v>16.42909963177117</v>
+        <v>11.17645688442287</v>
       </c>
       <c r="O14">
-        <v>18.33610896484305</v>
+        <v>14.35739483843336</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.681225468799435</v>
+        <v>9.254370167736322</v>
       </c>
       <c r="D15">
-        <v>4.286982743277949</v>
+        <v>4.827561799870844</v>
       </c>
       <c r="E15">
-        <v>12.36543813044648</v>
+        <v>15.1424102387124</v>
       </c>
       <c r="F15">
-        <v>20.98014068723964</v>
+        <v>20.01524692280867</v>
       </c>
       <c r="G15">
-        <v>23.42898100294332</v>
+        <v>25.92877313644345</v>
       </c>
       <c r="H15">
-        <v>12.47067100916273</v>
+        <v>8.043476226796709</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.36743709788063</v>
+        <v>22.24737233848995</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.56858347381792</v>
+        <v>22.19536295304403</v>
       </c>
       <c r="N15">
-        <v>16.43278672124557</v>
+        <v>11.18566525649505</v>
       </c>
       <c r="O15">
-        <v>18.33633150297511</v>
+        <v>14.31318275056856</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.560845072694863</v>
+        <v>8.94615816552346</v>
       </c>
       <c r="D16">
-        <v>4.244631090975625</v>
+        <v>4.719772301904159</v>
       </c>
       <c r="E16">
-        <v>12.26769636818562</v>
+        <v>14.58729015584772</v>
       </c>
       <c r="F16">
-        <v>20.92113546967013</v>
+        <v>19.51479827436242</v>
       </c>
       <c r="G16">
-        <v>23.30898203165706</v>
+        <v>25.17595508868632</v>
       </c>
       <c r="H16">
-        <v>12.48797943746038</v>
+        <v>7.986662856196301</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.02018414177494</v>
+        <v>21.58940337093338</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.35126824466379</v>
+        <v>21.48954491213909</v>
       </c>
       <c r="N16">
-        <v>16.45443015911152</v>
+        <v>11.23979155955986</v>
       </c>
       <c r="O16">
-        <v>18.33920240998219</v>
+        <v>14.06344572639551</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.486003156993373</v>
+        <v>8.752719519664884</v>
       </c>
       <c r="D17">
-        <v>4.218312766654994</v>
+        <v>4.65233083585547</v>
       </c>
       <c r="E17">
-        <v>12.20864148071719</v>
+        <v>14.24140407857319</v>
       </c>
       <c r="F17">
-        <v>20.88670253713009</v>
+        <v>19.20806661378329</v>
       </c>
       <c r="G17">
-        <v>23.23775073334424</v>
+        <v>24.71360288231158</v>
       </c>
       <c r="H17">
-        <v>12.49928247832246</v>
+        <v>7.954072002211069</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.80194153787989</v>
+        <v>21.17614805643814</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.21712001914969</v>
+        <v>21.04689218285641</v>
       </c>
       <c r="N17">
-        <v>16.46816696687183</v>
+        <v>11.27418073863211</v>
       </c>
       <c r="O17">
-        <v>18.34238630405152</v>
+        <v>13.91349038764743</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.442606790643204</v>
+        <v>8.639844333573379</v>
       </c>
       <c r="D18">
-        <v>4.203054095115915</v>
+        <v>4.613061894870558</v>
       </c>
       <c r="E18">
-        <v>12.1750198683752</v>
+        <v>14.04046731607241</v>
       </c>
       <c r="F18">
-        <v>20.86755097852473</v>
+        <v>19.03178574348211</v>
       </c>
       <c r="G18">
-        <v>23.19766964741035</v>
+        <v>24.44753097701656</v>
       </c>
       <c r="H18">
-        <v>12.50603504704999</v>
+        <v>7.936141841387236</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.67450864795659</v>
+        <v>20.93491621715902</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.13968393589567</v>
+        <v>20.78871598745401</v>
       </c>
       <c r="N18">
-        <v>16.47623695723711</v>
+        <v>11.29438569650892</v>
       </c>
       <c r="O18">
-        <v>18.34473990335316</v>
+        <v>13.82844081761422</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.427855068546394</v>
+        <v>8.601348348079755</v>
       </c>
       <c r="D19">
-        <v>4.197867244845656</v>
+        <v>4.599684476881256</v>
       </c>
       <c r="E19">
-        <v>12.16369658611259</v>
+        <v>13.97208867897097</v>
       </c>
       <c r="F19">
-        <v>20.86117923526217</v>
+        <v>18.97212883380789</v>
       </c>
       <c r="G19">
-        <v>23.18425281473846</v>
+        <v>24.35742525617904</v>
       </c>
       <c r="H19">
-        <v>12.50836448956746</v>
+        <v>7.930209455485993</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.63103588745692</v>
+        <v>20.85263112682717</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.11342048058683</v>
+        <v>20.70068579819043</v>
       </c>
       <c r="N19">
-        <v>16.47899834912915</v>
+        <v>11.30129885587267</v>
       </c>
       <c r="O19">
-        <v>18.34562644149051</v>
+        <v>13.79985131756696</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.494006715022285</v>
+        <v>8.773478211645678</v>
       </c>
       <c r="D20">
-        <v>4.221126990423624</v>
+        <v>4.659559731884089</v>
       </c>
       <c r="E20">
-        <v>12.21489251725463</v>
+        <v>14.27842977076809</v>
       </c>
       <c r="F20">
-        <v>20.89030046583771</v>
+        <v>19.24070489408572</v>
       </c>
       <c r="G20">
-        <v>23.24524167835061</v>
+        <v>24.76283675148202</v>
       </c>
       <c r="H20">
-        <v>12.49805322800771</v>
+        <v>7.957456611467784</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.82537130518994</v>
+        <v>21.22050588330631</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.23142970332026</v>
+        <v>21.09438266533505</v>
       </c>
       <c r="N20">
-        <v>16.46668717913882</v>
+        <v>11.27047572269154</v>
       </c>
       <c r="O20">
-        <v>18.34199330309444</v>
+        <v>13.92932925498537</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.711986485489391</v>
+        <v>9.332606180177651</v>
       </c>
       <c r="D21">
-        <v>4.297810726930003</v>
+        <v>4.854980056007642</v>
       </c>
       <c r="E21">
-        <v>12.39094345638071</v>
+        <v>15.28410751417851</v>
       </c>
       <c r="F21">
-        <v>20.99591621467959</v>
+        <v>20.14450781151763</v>
       </c>
       <c r="G21">
-        <v>23.46068844201947</v>
+        <v>26.1229359680944</v>
       </c>
       <c r="H21">
-        <v>12.46641431545749</v>
+        <v>8.058856671624888</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.45547102865434</v>
+        <v>22.41428076083256</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.6244101086135</v>
+        <v>22.37462754095766</v>
       </c>
       <c r="N21">
-        <v>16.42734066256229</v>
+        <v>11.17206560253441</v>
       </c>
       <c r="O21">
-        <v>18.33603049068762</v>
+        <v>14.37865963082555</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.85102393141529</v>
+        <v>9.683908903183044</v>
       </c>
       <c r="D22">
-        <v>4.346792274520242</v>
+        <v>4.978333655214501</v>
       </c>
       <c r="E22">
-        <v>12.50881842044491</v>
+        <v>15.92432049926569</v>
       </c>
       <c r="F22">
-        <v>21.07065438551432</v>
+        <v>20.73565832620394</v>
       </c>
       <c r="G22">
-        <v>23.60912789301464</v>
+        <v>27.00958736810796</v>
       </c>
       <c r="H22">
-        <v>12.44798168043299</v>
+        <v>8.132724762227637</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.85009975845549</v>
+        <v>23.16311689778524</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.87818487314298</v>
+        <v>23.18007481278141</v>
       </c>
       <c r="N22">
-        <v>16.40312636921344</v>
+        <v>11.11175643522575</v>
       </c>
       <c r="O22">
-        <v>18.33679412567219</v>
+        <v>14.68288261525615</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.777144563159795</v>
+        <v>9.497691286398325</v>
       </c>
       <c r="D23">
-        <v>4.320756517449249</v>
+        <v>4.91290141218806</v>
       </c>
       <c r="E23">
-        <v>12.44566140105676</v>
+        <v>15.58415129361855</v>
       </c>
       <c r="F23">
-        <v>21.0302480365032</v>
+        <v>20.42014184967795</v>
       </c>
       <c r="G23">
-        <v>23.52921909886533</v>
+        <v>26.53661076420322</v>
       </c>
       <c r="H23">
-        <v>12.45761376603367</v>
+        <v>8.092588911895785</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.64105953218002</v>
+        <v>22.76631007960013</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.74304800478574</v>
+        <v>22.75302463820175</v>
       </c>
       <c r="N23">
-        <v>16.41591282335155</v>
+        <v>11.14356657745659</v>
       </c>
       <c r="O23">
-        <v>18.3359597709335</v>
+        <v>14.51955309410445</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.490389451396347</v>
+        <v>8.764098395073134</v>
       </c>
       <c r="D24">
-        <v>4.219855077633369</v>
+        <v>4.656293091503608</v>
       </c>
       <c r="E24">
-        <v>12.21206539340119</v>
+        <v>14.26169694827942</v>
       </c>
       <c r="F24">
-        <v>20.88867183388621</v>
+        <v>19.22594892085882</v>
       </c>
       <c r="G24">
-        <v>23.24185230671673</v>
+        <v>24.7405789149217</v>
       </c>
       <c r="H24">
-        <v>12.49860818000667</v>
+        <v>7.955923920566864</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.81478481709168</v>
+        <v>21.20046306714854</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.22496126171022</v>
+        <v>21.07292371537333</v>
       </c>
       <c r="N24">
-        <v>16.46735565374131</v>
+        <v>11.27214941045762</v>
       </c>
       <c r="O24">
-        <v>18.34216934939203</v>
+        <v>13.92216488295786</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.167966922067204</v>
+        <v>7.910937031743008</v>
       </c>
       <c r="D25">
-        <v>4.106426130059</v>
+        <v>4.361302055774596</v>
       </c>
       <c r="E25">
-        <v>11.97343216735634</v>
+        <v>12.91675520334339</v>
       </c>
       <c r="F25">
-        <v>20.76098121002729</v>
+        <v>17.94401197412988</v>
       </c>
       <c r="G25">
-        <v>22.96601185893479</v>
+        <v>22.79899733447411</v>
       </c>
       <c r="H25">
-        <v>12.55243247238385</v>
+        <v>7.839451922462668</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.85086252460971</v>
+        <v>19.37617749796451</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.65590657925623</v>
+        <v>19.12376288527095</v>
       </c>
       <c r="N25">
-        <v>16.52930636710363</v>
+        <v>11.42699974746885</v>
       </c>
       <c r="O25">
-        <v>18.36882399714512</v>
+        <v>13.32375546663734</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.228130662840152</v>
+        <v>6.358742107167338</v>
       </c>
       <c r="D2">
-        <v>4.129176100444072</v>
+        <v>4.632484950855408</v>
       </c>
       <c r="E2">
-        <v>11.98865745107697</v>
+        <v>10.45853013289838</v>
       </c>
       <c r="F2">
-        <v>17.01108801300557</v>
+        <v>23.0130777011804</v>
       </c>
       <c r="G2">
-        <v>21.37367711426362</v>
+        <v>35.36349698331412</v>
       </c>
       <c r="H2">
-        <v>7.77829825006405</v>
+        <v>3.465932400517682</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.835926650234751</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.89641439764217</v>
       </c>
       <c r="K2">
-        <v>17.91626765474797</v>
+        <v>18.00785874560231</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.786683688833567</v>
       </c>
       <c r="M2">
-        <v>17.56807870928557</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.55389408259249</v>
+        <v>8.003592508532737</v>
       </c>
       <c r="O2">
-        <v>12.9231219989849</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>97.99656425136727</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.730623874627942</v>
+        <v>6.07558975337144</v>
       </c>
       <c r="D3">
-        <v>3.963042869303034</v>
+        <v>4.461806854668965</v>
       </c>
       <c r="E3">
-        <v>11.3501781597541</v>
+        <v>9.993272971576753</v>
       </c>
       <c r="F3">
-        <v>16.38922510980363</v>
+        <v>22.55754402561439</v>
       </c>
       <c r="G3">
-        <v>20.4158369945784</v>
+        <v>33.73778503248132</v>
       </c>
       <c r="H3">
-        <v>7.751114220449212</v>
+        <v>2.767433413080224</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.332372490861461</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.81135110591496</v>
       </c>
       <c r="K3">
-        <v>16.85432657309274</v>
+        <v>17.74703334190987</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.574856830836014</v>
       </c>
       <c r="M3">
-        <v>16.43746918229132</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>11.64748417544391</v>
+        <v>7.467017496365634</v>
       </c>
       <c r="O3">
-        <v>12.67658175740161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>90.98577638787792</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.407785998757112</v>
+        <v>5.896772132714545</v>
       </c>
       <c r="D4">
-        <v>3.856894494738301</v>
+        <v>4.352303357019351</v>
       </c>
       <c r="E4">
-        <v>10.95459014405305</v>
+        <v>9.693651836191771</v>
       </c>
       <c r="F4">
-        <v>16.0138825276883</v>
+        <v>22.34796146205828</v>
       </c>
       <c r="G4">
-        <v>19.83395022920935</v>
+        <v>32.81698625232332</v>
       </c>
       <c r="H4">
-        <v>7.741075112685303</v>
+        <v>2.341359495324359</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.023092449232798</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.78054568054183</v>
       </c>
       <c r="K4">
-        <v>16.16675887204591</v>
+        <v>17.62674098965703</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.469645812158367</v>
       </c>
       <c r="M4">
-        <v>15.70535696072881</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>11.7085647257368</v>
+        <v>7.121940500414195</v>
       </c>
       <c r="O4">
-        <v>12.53745066158226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>86.51588950168522</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.271828586111707</v>
+        <v>5.828184223888658</v>
       </c>
       <c r="D5">
-        <v>3.812633570285305</v>
+        <v>4.304419451969653</v>
       </c>
       <c r="E5">
-        <v>10.79269974879642</v>
+        <v>9.569182514584572</v>
       </c>
       <c r="F5">
-        <v>15.86277723094564</v>
+        <v>22.26164092336766</v>
       </c>
       <c r="G5">
-        <v>19.59876889496745</v>
+        <v>32.42862645463018</v>
       </c>
       <c r="H5">
-        <v>7.738598316604278</v>
+        <v>2.167269081972147</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.896793901794032</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.76686063398927</v>
       </c>
       <c r="K5">
-        <v>15.87769709271616</v>
+        <v>17.57231160342657</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.427549186980065</v>
       </c>
       <c r="M5">
-        <v>15.39745526675948</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>11.73434706602079</v>
+        <v>6.974830923937592</v>
       </c>
       <c r="O5">
-        <v>12.48381171871153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>84.64956062586475</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.248986403369226</v>
+        <v>5.823509482762875</v>
       </c>
       <c r="D6">
-        <v>3.805224584240742</v>
+        <v>4.293777538809506</v>
       </c>
       <c r="E6">
-        <v>10.76578343742686</v>
+        <v>9.549562587499279</v>
       </c>
       <c r="F6">
-        <v>15.83780459674272</v>
+        <v>22.22771870665867</v>
       </c>
       <c r="G6">
-        <v>19.55984604752021</v>
+        <v>32.32688810597077</v>
       </c>
       <c r="H6">
-        <v>7.738282800028308</v>
+        <v>2.137585589805325</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.876079114370569</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.75759794497995</v>
       </c>
       <c r="K6">
-        <v>15.82916503328767</v>
+        <v>17.54624108089612</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.422512354869071</v>
       </c>
       <c r="M6">
-        <v>15.34575050752637</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>11.73868156120679</v>
+        <v>6.947265201020494</v>
       </c>
       <c r="O6">
-        <v>12.47508884544865</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>84.33674091462457</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.405970279595734</v>
+        <v>5.914094808767824</v>
       </c>
       <c r="D7">
-        <v>3.856301591407993</v>
+        <v>4.34454511771217</v>
       </c>
       <c r="E7">
-        <v>10.95240930334032</v>
+        <v>9.695372767264899</v>
       </c>
       <c r="F7">
-        <v>16.01183688304165</v>
+        <v>22.29073668879186</v>
       </c>
       <c r="G7">
-        <v>19.8307701098915</v>
+        <v>32.70797901919745</v>
       </c>
       <c r="H7">
-        <v>7.741035252285519</v>
+        <v>2.336919905377163</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.021627811253285</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.76044457792238</v>
       </c>
       <c r="K7">
-        <v>16.16289630791863</v>
+        <v>17.57796186834633</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.474541832129585</v>
       </c>
       <c r="M7">
-        <v>15.70124322467436</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>11.70890884791752</v>
+        <v>7.112300457723725</v>
       </c>
       <c r="O7">
-        <v>12.53671492319613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>86.49049499899675</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.060175713206879</v>
+        <v>6.285043174922693</v>
       </c>
       <c r="D8">
-        <v>4.072773563610261</v>
+        <v>4.565501844268378</v>
       </c>
       <c r="E8">
-        <v>11.76936308146253</v>
+        <v>10.30543096797763</v>
       </c>
       <c r="F8">
-        <v>16.79545268676042</v>
+        <v>22.76661692093966</v>
       </c>
       <c r="G8">
-        <v>21.04233604444804</v>
+        <v>34.65396230602783</v>
       </c>
       <c r="H8">
-        <v>7.76750993925365</v>
+        <v>3.221454586443977</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.661250704506684</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.83577075268016</v>
       </c>
       <c r="K8">
-        <v>17.55751519018381</v>
+        <v>17.84529672921919</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.691126446404279</v>
       </c>
       <c r="M8">
-        <v>17.18609360871895</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>11.58540233516485</v>
+        <v>7.812388521689908</v>
       </c>
       <c r="O8">
-        <v>12.83556442128998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>95.61072234256171</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.206718559150065</v>
+        <v>6.943151835621585</v>
       </c>
       <c r="D9">
-        <v>4.463044440009847</v>
+        <v>4.970653048595207</v>
       </c>
       <c r="E9">
-        <v>13.33585497029453</v>
+        <v>11.49113221849093</v>
       </c>
       <c r="F9">
-        <v>18.37455618796799</v>
+        <v>24.44274694741161</v>
       </c>
       <c r="G9">
-        <v>23.45298305063815</v>
+        <v>39.32983659157198</v>
       </c>
       <c r="H9">
-        <v>7.8747245670375</v>
+        <v>5.012632746188237</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.935596278889459</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.21897766797399</v>
       </c>
       <c r="K9">
-        <v>20.00881784216763</v>
+        <v>18.82693008365054</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.619996086941502</v>
       </c>
       <c r="M9">
-        <v>19.79889310450774</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.37277418103169</v>
+        <v>9.085151312940559</v>
       </c>
       <c r="O9">
-        <v>13.51914335530432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>112.3650602375036</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.968012962516433</v>
+        <v>7.431458604180914</v>
       </c>
       <c r="D10">
-        <v>4.727402625349915</v>
+        <v>5.255770077858378</v>
       </c>
       <c r="E10">
-        <v>14.62649036921113</v>
+        <v>12.6292292113418</v>
       </c>
       <c r="F10">
-        <v>19.54981479999072</v>
+        <v>25.89621709991176</v>
       </c>
       <c r="G10">
-        <v>25.22868982558185</v>
+        <v>42.86171544390321</v>
       </c>
       <c r="H10">
-        <v>7.990493345686484</v>
+        <v>6.404774512036826</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>5.911366550267999</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.56604148667816</v>
       </c>
       <c r="K10">
-        <v>21.63607960056415</v>
+        <v>19.64322126309346</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.370784723966482</v>
       </c>
       <c r="M10">
-        <v>21.53957218408872</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.23592585089623</v>
+        <v>10.0542129268525</v>
       </c>
       <c r="O10">
-        <v>14.08071892646982</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>124.3186560522078</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.297202515588864</v>
+        <v>7.855516040893394</v>
       </c>
       <c r="D11">
-        <v>4.842570006735418</v>
+        <v>5.539481550972644</v>
       </c>
       <c r="E11">
-        <v>15.21994655907711</v>
+        <v>14.26334526106647</v>
       </c>
       <c r="F11">
-        <v>20.08590433042427</v>
+        <v>24.21045677222651</v>
       </c>
       <c r="G11">
-        <v>26.03492125893039</v>
+        <v>41.08999776951948</v>
       </c>
       <c r="H11">
-        <v>8.051848451910617</v>
+        <v>7.260201201281672</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>6.326140429830743</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.91538176003334</v>
       </c>
       <c r="K11">
-        <v>22.33875662017119</v>
+        <v>18.3212179211618</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.442227146361386</v>
       </c>
       <c r="M11">
-        <v>22.29350101257226</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.17821248064425</v>
+        <v>11.19965250063454</v>
       </c>
       <c r="O11">
-        <v>14.34892615154341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>129.7474978781211</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.419433884411861</v>
+        <v>8.102228745543153</v>
       </c>
       <c r="D12">
-        <v>4.885433461920803</v>
+        <v>5.735135138211836</v>
       </c>
       <c r="E12">
-        <v>15.44173987645875</v>
+        <v>15.4222876181238</v>
       </c>
       <c r="F12">
-        <v>20.28899588396449</v>
+        <v>22.48305437855713</v>
       </c>
       <c r="G12">
-        <v>26.33984410384902</v>
+        <v>38.93446119170833</v>
       </c>
       <c r="H12">
-        <v>8.076382009487574</v>
+        <v>8.037206422007177</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>6.475247557208355</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.29119759399077</v>
       </c>
       <c r="K12">
-        <v>22.59946148514216</v>
+        <v>17.04605738763461</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.20069702006104</v>
       </c>
       <c r="M12">
-        <v>22.57362587450589</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.15704231745507</v>
+        <v>11.99333022364389</v>
       </c>
       <c r="O12">
-        <v>14.45230345156562</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>131.8083833133453</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.393216440991679</v>
+        <v>8.256066258064271</v>
       </c>
       <c r="D13">
-        <v>4.876235536514456</v>
+        <v>5.86842438666808</v>
       </c>
       <c r="E13">
-        <v>15.39410157009477</v>
+        <v>16.32527032230045</v>
       </c>
       <c r="F13">
-        <v>20.2452543457561</v>
+        <v>20.41644884114057</v>
       </c>
       <c r="G13">
-        <v>26.27419239748321</v>
+        <v>35.97191015609053</v>
       </c>
       <c r="H13">
-        <v>8.071039693533677</v>
+        <v>8.744191398124554</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6.414346758635703</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.592680747687519</v>
       </c>
       <c r="K13">
-        <v>22.54355306156759</v>
+        <v>15.59514978892909</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.79339540747173</v>
       </c>
       <c r="M13">
-        <v>22.51353350886073</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.16157070255012</v>
+        <v>12.5749931660758</v>
       </c>
       <c r="O13">
-        <v>14.42995896995143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>131.333943956473</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.307306957280321</v>
+        <v>8.330368757041549</v>
       </c>
       <c r="D14">
-        <v>4.846111479334052</v>
+        <v>5.932458112285416</v>
       </c>
       <c r="E14">
-        <v>15.23825185226444</v>
+        <v>16.85664000223791</v>
       </c>
       <c r="F14">
-        <v>20.10261168480089</v>
+        <v>18.77476660100595</v>
       </c>
       <c r="G14">
-        <v>26.06001578479284</v>
+        <v>33.45222751964876</v>
       </c>
       <c r="H14">
-        <v>8.053840516596287</v>
+        <v>9.243240307619965</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6.277395744980041</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.0630935323521</v>
       </c>
       <c r="K14">
-        <v>22.36031271937099</v>
+        <v>14.47830314110248</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.14510859296674</v>
       </c>
       <c r="M14">
-        <v>22.31665421877835</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.17645688442287</v>
+        <v>12.89558961893226</v>
       </c>
       <c r="O14">
-        <v>14.35739483843336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>129.8552330442299</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.254370167736322</v>
+        <v>8.334804265327124</v>
       </c>
       <c r="D15">
-        <v>4.827561799870844</v>
+        <v>5.931507888899349</v>
       </c>
       <c r="E15">
-        <v>15.1424102387124</v>
+        <v>16.93342461795193</v>
       </c>
       <c r="F15">
-        <v>20.01524692280867</v>
+        <v>18.28435593814187</v>
       </c>
       <c r="G15">
-        <v>25.92877313644345</v>
+        <v>32.61894833132264</v>
       </c>
       <c r="H15">
-        <v>8.043476226796709</v>
+        <v>9.319449840195171</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>6.198371747465012</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.915079965426097</v>
       </c>
       <c r="K15">
-        <v>22.24737233848995</v>
+        <v>14.15724673772959</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.19766321032013</v>
       </c>
       <c r="M15">
-        <v>22.19536295304403</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.18566525649505</v>
+        <v>12.92600355761261</v>
       </c>
       <c r="O15">
-        <v>14.31318275056856</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>128.9571260788485</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.94615816552346</v>
+        <v>8.123850099588045</v>
       </c>
       <c r="D16">
-        <v>4.719772301904159</v>
+        <v>5.787804599382675</v>
       </c>
       <c r="E16">
-        <v>14.58729015584772</v>
+        <v>16.36146142231825</v>
       </c>
       <c r="F16">
-        <v>19.51479827436242</v>
+        <v>17.7672700174701</v>
       </c>
       <c r="G16">
-        <v>25.17595508868632</v>
+        <v>31.03277026699659</v>
       </c>
       <c r="H16">
-        <v>7.986662856196301</v>
+        <v>8.699414148676645</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>5.767173892221333</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.84433786881055</v>
       </c>
       <c r="K16">
-        <v>21.58940337093338</v>
+        <v>13.94546581389028</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.82140806038545</v>
       </c>
       <c r="M16">
-        <v>21.48954491213909</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23979155955986</v>
+        <v>12.4494708564798</v>
       </c>
       <c r="O16">
-        <v>14.06344572639551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>123.8607086229592</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.752719519664884</v>
+        <v>7.916919741139834</v>
       </c>
       <c r="D17">
-        <v>4.65233083585547</v>
+        <v>5.640352051117374</v>
       </c>
       <c r="E17">
-        <v>14.24140407857319</v>
+        <v>15.61477496092034</v>
       </c>
       <c r="F17">
-        <v>19.20806661378329</v>
+        <v>18.32763984924882</v>
       </c>
       <c r="G17">
-        <v>24.71360288231158</v>
+        <v>31.38987205417927</v>
       </c>
       <c r="H17">
-        <v>7.954072002211069</v>
+        <v>7.894405371593749</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>5.514840946845208</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.085535480619471</v>
       </c>
       <c r="K17">
-        <v>21.17614805643814</v>
+        <v>14.41218200908531</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.32897350233752</v>
       </c>
       <c r="M17">
-        <v>21.04689218285641</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.27418073863211</v>
+        <v>11.89620449747363</v>
       </c>
       <c r="O17">
-        <v>13.91349038764743</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>120.7580646027571</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.639844333573379</v>
+        <v>7.680911497113755</v>
       </c>
       <c r="D18">
-        <v>4.613061894870558</v>
+        <v>5.481717245071894</v>
       </c>
       <c r="E18">
-        <v>14.04046731607241</v>
+        <v>14.63771667188569</v>
       </c>
       <c r="F18">
-        <v>19.03178574348211</v>
+        <v>19.83918014515701</v>
       </c>
       <c r="G18">
-        <v>24.44753097701656</v>
+        <v>33.35466566936579</v>
       </c>
       <c r="H18">
-        <v>7.936141841387236</v>
+        <v>6.909433750478426</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>5.383970446849895</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.612957627540398</v>
       </c>
       <c r="K18">
-        <v>20.93491621715902</v>
+        <v>15.50227389588622</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.681302085610735</v>
       </c>
       <c r="M18">
-        <v>20.78871598745401</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.29438569650892</v>
+        <v>11.22485877785988</v>
       </c>
       <c r="O18">
-        <v>13.82844081761422</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>118.9864418162799</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.601348348079755</v>
+        <v>7.484618214590502</v>
       </c>
       <c r="D19">
-        <v>4.599684476881256</v>
+        <v>5.316265055181863</v>
       </c>
       <c r="E19">
-        <v>13.97208867897097</v>
+        <v>13.57445272751615</v>
       </c>
       <c r="F19">
-        <v>18.97212883380789</v>
+        <v>21.84869674178713</v>
       </c>
       <c r="G19">
-        <v>24.35742525617904</v>
+        <v>36.2180457576201</v>
       </c>
       <c r="H19">
-        <v>7.930209455485993</v>
+        <v>6.079361787729116</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>5.362870949181898</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.28319024986421</v>
       </c>
       <c r="K19">
-        <v>20.85263112682717</v>
+        <v>16.8996040385846</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.984840736715698</v>
       </c>
       <c r="M19">
-        <v>20.70068579819043</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.30129885587267</v>
+        <v>10.51494241923999</v>
       </c>
       <c r="O19">
-        <v>13.79985131756696</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>118.4039688137013</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.773478211645678</v>
+        <v>7.353781365280343</v>
       </c>
       <c r="D20">
-        <v>4.659559731884089</v>
+        <v>5.164021693775633</v>
       </c>
       <c r="E20">
-        <v>14.27842977076809</v>
+        <v>12.3547390215332</v>
       </c>
       <c r="F20">
-        <v>19.24070489408572</v>
+        <v>25.29229150764307</v>
       </c>
       <c r="G20">
-        <v>24.76283675148202</v>
+        <v>41.5912221537562</v>
       </c>
       <c r="H20">
-        <v>7.957456611467784</v>
+        <v>6.021524963357626</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5.646078547267944</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.3942235709852</v>
       </c>
       <c r="K20">
-        <v>21.22050588330631</v>
+        <v>19.2466675680416</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.198594201208687</v>
       </c>
       <c r="M20">
-        <v>21.09438266533505</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.27047572269154</v>
+        <v>9.788134878457967</v>
       </c>
       <c r="O20">
-        <v>13.92932925498537</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>121.1754543709473</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.332606180177651</v>
+        <v>7.677505363280767</v>
       </c>
       <c r="D21">
-        <v>4.854980056007642</v>
+        <v>5.346254275710546</v>
       </c>
       <c r="E21">
-        <v>15.28410751417851</v>
+        <v>12.99394771590846</v>
       </c>
       <c r="F21">
-        <v>20.14450781151763</v>
+        <v>27.10782387054756</v>
       </c>
       <c r="G21">
-        <v>26.1229359680944</v>
+        <v>45.29259015309911</v>
       </c>
       <c r="H21">
-        <v>8.058856671624888</v>
+        <v>7.169242340676199</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>6.436281089156476</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.89529589862275</v>
       </c>
       <c r="K21">
-        <v>22.41428076083256</v>
+        <v>20.35064408671695</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.630152153742912</v>
       </c>
       <c r="M21">
-        <v>22.37462754095766</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.17206560253441</v>
+        <v>10.40400339893805</v>
       </c>
       <c r="O21">
-        <v>14.37865963082555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>130.4083271960036</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.683908903183044</v>
+        <v>7.877546664523363</v>
       </c>
       <c r="D22">
-        <v>4.978333655214501</v>
+        <v>5.47620534491177</v>
       </c>
       <c r="E22">
-        <v>15.92432049926569</v>
+        <v>13.4647480273648</v>
       </c>
       <c r="F22">
-        <v>20.73565832620394</v>
+        <v>28.45895000212448</v>
       </c>
       <c r="G22">
-        <v>27.00958736810796</v>
+        <v>47.86051030656816</v>
       </c>
       <c r="H22">
-        <v>8.132724762227637</v>
+        <v>7.966061477219147</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>6.980836478981008</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.25357908788891</v>
       </c>
       <c r="K22">
-        <v>23.16311689778524</v>
+        <v>21.13041585084273</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.94859075929201</v>
       </c>
       <c r="M22">
-        <v>23.18007481278141</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.11175643522575</v>
+        <v>10.86141975581429</v>
       </c>
       <c r="O22">
-        <v>14.68288261525615</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>136.5821347143835</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.497691286398325</v>
+        <v>7.754054336768531</v>
       </c>
       <c r="D23">
-        <v>4.91290141218806</v>
+        <v>5.414927462394174</v>
       </c>
       <c r="E23">
-        <v>15.58415129361855</v>
+        <v>13.21019710983284</v>
       </c>
       <c r="F23">
-        <v>20.42014184967795</v>
+        <v>27.74136316211845</v>
       </c>
       <c r="G23">
-        <v>26.53661076420322</v>
+        <v>46.56785556099815</v>
       </c>
       <c r="H23">
-        <v>8.092588911895785</v>
+        <v>7.537257221216219</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>6.688224059130746</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.07963218639556</v>
       </c>
       <c r="K23">
-        <v>22.76631007960013</v>
+        <v>20.75723622173455</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.772013667794297</v>
       </c>
       <c r="M23">
-        <v>22.75302463820175</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.14356657745659</v>
+        <v>10.62249033801177</v>
       </c>
       <c r="O23">
-        <v>14.51955309410445</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>133.2685591728104</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.764098395073134</v>
+        <v>7.304249329840124</v>
       </c>
       <c r="D24">
-        <v>4.656293091503608</v>
+        <v>5.156882018044748</v>
       </c>
       <c r="E24">
-        <v>14.26169694827942</v>
+        <v>12.23159798100968</v>
       </c>
       <c r="F24">
-        <v>19.22594892085882</v>
+        <v>25.58513678210657</v>
       </c>
       <c r="G24">
-        <v>24.7405789149217</v>
+        <v>42.02144865266082</v>
       </c>
       <c r="H24">
-        <v>7.955923920566864</v>
+        <v>6.018369707215975</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>5.64001047813217</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.49820297498371</v>
       </c>
       <c r="K24">
-        <v>21.20046306714854</v>
+        <v>19.47232719229981</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.11315109770227</v>
       </c>
       <c r="M24">
-        <v>21.07292371537333</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.27214941045762</v>
+        <v>9.721568203949287</v>
       </c>
       <c r="O24">
-        <v>13.92216488295786</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>121.0317274738581</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.910937031743008</v>
+        <v>6.798454230106158</v>
       </c>
       <c r="D25">
-        <v>4.361302055774596</v>
+        <v>4.853810841721725</v>
       </c>
       <c r="E25">
-        <v>12.91675520334339</v>
+        <v>11.10981469506546</v>
       </c>
       <c r="F25">
-        <v>17.94401197412988</v>
+        <v>23.80915780627553</v>
       </c>
       <c r="G25">
-        <v>22.79899733447411</v>
+        <v>37.81148840484143</v>
       </c>
       <c r="H25">
-        <v>7.839451922462668</v>
+        <v>4.513768511201376</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.58432331916228</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.05324497867788</v>
       </c>
       <c r="K25">
-        <v>19.37617749796451</v>
+        <v>18.42713376542043</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.379300379459269</v>
       </c>
       <c r="M25">
-        <v>19.12376288527095</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.42699974746885</v>
+        <v>8.739618010435562</v>
       </c>
       <c r="O25">
-        <v>13.32375546663734</v>
+        <v>107.9230440368773</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.358742107167338</v>
+        <v>6.962376675612039</v>
       </c>
       <c r="D2">
-        <v>4.632484950855408</v>
+        <v>4.323268503008749</v>
       </c>
       <c r="E2">
-        <v>10.45853013289838</v>
+        <v>10.56078645546665</v>
       </c>
       <c r="F2">
-        <v>23.0130777011804</v>
+        <v>20.94526811308388</v>
       </c>
       <c r="G2">
-        <v>35.36349698331412</v>
+        <v>31.09577472186388</v>
       </c>
       <c r="H2">
-        <v>3.465932400517682</v>
+        <v>3.341406139874146</v>
       </c>
       <c r="I2">
-        <v>3.835926650234751</v>
+        <v>3.706116249000611</v>
       </c>
       <c r="J2">
-        <v>10.89641439764217</v>
+        <v>10.73174137764956</v>
       </c>
       <c r="K2">
-        <v>18.00785874560231</v>
+        <v>16.21585244416473</v>
       </c>
       <c r="L2">
-        <v>6.786683688833567</v>
+        <v>14.34818977019223</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.05860937404508</v>
       </c>
       <c r="N2">
-        <v>8.003592508532737</v>
+        <v>7.067411359766922</v>
       </c>
       <c r="O2">
-        <v>97.99656425136727</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.732927052241847</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>97.95985780593354</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.07558975337144</v>
+        <v>6.525557024794989</v>
       </c>
       <c r="D3">
-        <v>4.461806854668965</v>
+        <v>4.220397238469268</v>
       </c>
       <c r="E3">
-        <v>9.993272971576753</v>
+        <v>10.08732309509306</v>
       </c>
       <c r="F3">
-        <v>22.55754402561439</v>
+        <v>20.75600691566102</v>
       </c>
       <c r="G3">
-        <v>33.73778503248132</v>
+        <v>29.91092859881</v>
       </c>
       <c r="H3">
-        <v>2.767433413080224</v>
+        <v>2.715649101577778</v>
       </c>
       <c r="I3">
-        <v>3.332372490861461</v>
+        <v>3.288397823874887</v>
       </c>
       <c r="J3">
-        <v>10.81135110591496</v>
+        <v>10.67126657698417</v>
       </c>
       <c r="K3">
-        <v>17.74703334190987</v>
+        <v>16.16311300169727</v>
       </c>
       <c r="L3">
-        <v>6.574856830836014</v>
+        <v>14.39252866072583</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.804891602113061</v>
       </c>
       <c r="N3">
-        <v>7.467017496365634</v>
+        <v>6.741315727774573</v>
       </c>
       <c r="O3">
-        <v>90.98577638787792</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.20196029528805</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>90.9736862393795</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.896772132714545</v>
+        <v>6.249043154687451</v>
       </c>
       <c r="D4">
-        <v>4.352303357019351</v>
+        <v>4.154469387392326</v>
       </c>
       <c r="E4">
-        <v>9.693651836191771</v>
+        <v>9.78389370433031</v>
       </c>
       <c r="F4">
-        <v>22.34796146205828</v>
+        <v>20.69755066906406</v>
       </c>
       <c r="G4">
-        <v>32.81698625232332</v>
+        <v>29.26623584306876</v>
       </c>
       <c r="H4">
-        <v>2.341359495324359</v>
+        <v>2.333415481489728</v>
       </c>
       <c r="I4">
-        <v>3.023092449232798</v>
+        <v>3.031387252612766</v>
       </c>
       <c r="J4">
-        <v>10.78054568054183</v>
+        <v>10.64371732657296</v>
       </c>
       <c r="K4">
-        <v>17.62674098965703</v>
+        <v>16.15901619852587</v>
       </c>
       <c r="L4">
-        <v>6.469645812158367</v>
+        <v>14.42179039993416</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.717629138740245</v>
       </c>
       <c r="N4">
-        <v>7.121940500414195</v>
+        <v>6.616175413827281</v>
       </c>
       <c r="O4">
-        <v>86.51588950168522</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.861984794520805</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>86.5143343742137</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.828184223888658</v>
+        <v>6.14079422753499</v>
       </c>
       <c r="D5">
-        <v>4.304419451969653</v>
+        <v>4.125083705939619</v>
       </c>
       <c r="E5">
-        <v>9.569182514584572</v>
+        <v>9.658120442853138</v>
       </c>
       <c r="F5">
-        <v>22.26164092336766</v>
+        <v>20.67170740160931</v>
       </c>
       <c r="G5">
-        <v>32.42862645463018</v>
+        <v>28.99416147595129</v>
       </c>
       <c r="H5">
-        <v>2.167269081972147</v>
+        <v>2.177163888332925</v>
       </c>
       <c r="I5">
-        <v>2.896793901794032</v>
+        <v>2.926701390298318</v>
       </c>
       <c r="J5">
-        <v>10.76686063398927</v>
+        <v>10.62942969997982</v>
       </c>
       <c r="K5">
-        <v>17.57231160342657</v>
+        <v>16.15109992416845</v>
       </c>
       <c r="L5">
-        <v>6.427549186980065</v>
+        <v>14.42413003500293</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.689026547419669</v>
       </c>
       <c r="N5">
-        <v>6.974830923937592</v>
+        <v>6.565893699144305</v>
       </c>
       <c r="O5">
-        <v>84.64956062586475</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.71751178975101</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>84.65134395342345</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.823509482762875</v>
+        <v>6.130703910005328</v>
       </c>
       <c r="D6">
-        <v>4.293777538809506</v>
+        <v>4.117863896356526</v>
       </c>
       <c r="E6">
-        <v>9.549562587499279</v>
+        <v>9.63823935855479</v>
       </c>
       <c r="F6">
-        <v>22.22771870665867</v>
+        <v>20.64995055654973</v>
       </c>
       <c r="G6">
-        <v>32.32688810597077</v>
+        <v>28.91510326695971</v>
       </c>
       <c r="H6">
-        <v>2.137585589805325</v>
+        <v>2.150549238542938</v>
       </c>
       <c r="I6">
-        <v>2.876079114370569</v>
+        <v>2.910030226339148</v>
       </c>
       <c r="J6">
-        <v>10.75759794497995</v>
+        <v>10.6208170687209</v>
       </c>
       <c r="K6">
-        <v>17.54624108089612</v>
+        <v>16.13487653037694</v>
       </c>
       <c r="L6">
-        <v>6.422512354869071</v>
+        <v>14.41244524309614</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.673977691372272</v>
       </c>
       <c r="N6">
-        <v>6.947265201020494</v>
+        <v>6.559406624585136</v>
       </c>
       <c r="O6">
-        <v>84.33674091462457</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.690637533497775</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>84.33904350455646</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.914094808767824</v>
+        <v>6.261202498296717</v>
       </c>
       <c r="D7">
-        <v>4.34454511771217</v>
+        <v>4.14168683261119</v>
       </c>
       <c r="E7">
-        <v>9.695372767264899</v>
+        <v>9.781269639023524</v>
       </c>
       <c r="F7">
-        <v>22.29073668879186</v>
+        <v>20.6189056028865</v>
       </c>
       <c r="G7">
-        <v>32.70797901919745</v>
+        <v>29.23946626605226</v>
       </c>
       <c r="H7">
-        <v>2.336919905377163</v>
+        <v>2.328580808359749</v>
       </c>
       <c r="I7">
-        <v>3.021627811253285</v>
+        <v>3.030475273245921</v>
       </c>
       <c r="J7">
-        <v>10.76044457792238</v>
+        <v>10.56865587532741</v>
       </c>
       <c r="K7">
-        <v>17.57796186834633</v>
+        <v>16.0983618370698</v>
       </c>
       <c r="L7">
-        <v>6.474541832129585</v>
+        <v>14.37469960858875</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.671568626032979</v>
       </c>
       <c r="N7">
-        <v>7.112300457723725</v>
+        <v>6.620922100699506</v>
       </c>
       <c r="O7">
-        <v>86.49049499899675</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.853491033042094</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>86.4888647686489</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.285043174922693</v>
+        <v>6.815766945801636</v>
       </c>
       <c r="D8">
-        <v>4.565501844268378</v>
+        <v>4.260437852159708</v>
       </c>
       <c r="E8">
-        <v>10.30543096797763</v>
+        <v>10.39144683218328</v>
       </c>
       <c r="F8">
-        <v>22.76661692093966</v>
+        <v>20.70688536310463</v>
       </c>
       <c r="G8">
-        <v>34.65396230602783</v>
+        <v>30.78002382681541</v>
       </c>
       <c r="H8">
-        <v>3.221454586443977</v>
+        <v>3.119709037718432</v>
       </c>
       <c r="I8">
-        <v>3.661250704506684</v>
+        <v>3.559775941848893</v>
       </c>
       <c r="J8">
-        <v>10.83577075268016</v>
+        <v>10.49494349817403</v>
       </c>
       <c r="K8">
-        <v>17.84529672921919</v>
+        <v>16.07350327366202</v>
       </c>
       <c r="L8">
-        <v>6.691126446404279</v>
+        <v>14.2759191443814</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.86243492718447</v>
       </c>
       <c r="N8">
-        <v>7.812388521689908</v>
+        <v>6.926685311639927</v>
       </c>
       <c r="O8">
-        <v>95.61072234256171</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.54557753366123</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>95.58289837769047</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.943151835621585</v>
+        <v>7.83289125008794</v>
       </c>
       <c r="D9">
-        <v>4.970653048595207</v>
+        <v>4.502047987743063</v>
       </c>
       <c r="E9">
-        <v>11.49113221849093</v>
+        <v>11.69790284055438</v>
       </c>
       <c r="F9">
-        <v>24.44274694741161</v>
+        <v>21.61475878385352</v>
       </c>
       <c r="G9">
-        <v>39.32983659157198</v>
+        <v>34.42382206127505</v>
       </c>
       <c r="H9">
-        <v>5.012632746188237</v>
+        <v>4.718647014683016</v>
       </c>
       <c r="I9">
-        <v>4.935596278889459</v>
+        <v>4.6109161923213</v>
       </c>
       <c r="J9">
-        <v>11.21897766797399</v>
+        <v>10.67907657506333</v>
       </c>
       <c r="K9">
-        <v>18.82693008365054</v>
+        <v>16.43845071811677</v>
       </c>
       <c r="L9">
-        <v>7.619996086941502</v>
+        <v>14.21701236964275</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.93630664915535</v>
       </c>
       <c r="N9">
-        <v>9.085151312940559</v>
+        <v>7.966550281383091</v>
       </c>
       <c r="O9">
-        <v>112.3650602375036</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.815325653741805</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>112.2376088051996</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.431458604180914</v>
+        <v>8.532895559605555</v>
       </c>
       <c r="D10">
-        <v>5.255770077858378</v>
+        <v>4.649096884152923</v>
       </c>
       <c r="E10">
-        <v>12.6292292113418</v>
+        <v>12.85869986285642</v>
       </c>
       <c r="F10">
-        <v>25.89621709991176</v>
+        <v>22.31999657506983</v>
       </c>
       <c r="G10">
-        <v>42.86171544390321</v>
+        <v>37.63620338507066</v>
       </c>
       <c r="H10">
-        <v>6.404774512036826</v>
+        <v>5.949133903768864</v>
       </c>
       <c r="I10">
-        <v>5.911366550267999</v>
+        <v>5.406131007009971</v>
       </c>
       <c r="J10">
-        <v>11.56604148667816</v>
+        <v>10.47693510426287</v>
       </c>
       <c r="K10">
-        <v>19.64322126309346</v>
+        <v>16.65958585152479</v>
       </c>
       <c r="L10">
-        <v>8.370784723966482</v>
+        <v>14.01685867664223</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.11525528123797</v>
       </c>
       <c r="N10">
-        <v>10.0542129268525</v>
+        <v>8.765456670754181</v>
       </c>
       <c r="O10">
-        <v>124.3186560522078</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.799142603935655</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>124.0584931061368</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.855516040893394</v>
+        <v>8.938455741228248</v>
       </c>
       <c r="D11">
-        <v>5.539481550972644</v>
+        <v>4.85476548841207</v>
       </c>
       <c r="E11">
-        <v>14.26334526106647</v>
+        <v>14.44248180744995</v>
       </c>
       <c r="F11">
-        <v>24.21045677222651</v>
+        <v>20.35049436729143</v>
       </c>
       <c r="G11">
-        <v>41.08999776951948</v>
+        <v>36.91976756675822</v>
       </c>
       <c r="H11">
-        <v>7.260201201281672</v>
+        <v>6.754850539035983</v>
       </c>
       <c r="I11">
-        <v>6.326140429830743</v>
+        <v>5.7414918492584</v>
       </c>
       <c r="J11">
-        <v>10.91538176003334</v>
+        <v>9.175586557018615</v>
       </c>
       <c r="K11">
-        <v>18.3212179211618</v>
+        <v>15.19713353651988</v>
       </c>
       <c r="L11">
-        <v>9.442227146361386</v>
+        <v>12.85009493082559</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.76589368720961</v>
       </c>
       <c r="N11">
-        <v>11.19965250063454</v>
+        <v>9.825007525980649</v>
       </c>
       <c r="O11">
-        <v>129.7474978781211</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>10.97065050040846</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>129.4077579639143</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.102228745543153</v>
+        <v>9.13363317777924</v>
       </c>
       <c r="D12">
-        <v>5.735135138211836</v>
+        <v>5.032493110782096</v>
       </c>
       <c r="E12">
-        <v>15.4222876181238</v>
+        <v>15.56405188797224</v>
       </c>
       <c r="F12">
-        <v>22.48305437855713</v>
+        <v>18.63182893157501</v>
       </c>
       <c r="G12">
-        <v>38.93446119170833</v>
+        <v>35.459011815242</v>
       </c>
       <c r="H12">
-        <v>8.037206422007177</v>
+        <v>7.547629256305881</v>
       </c>
       <c r="I12">
-        <v>6.475247557208355</v>
+        <v>5.862639826387018</v>
       </c>
       <c r="J12">
-        <v>10.29119759399077</v>
+        <v>8.344522460232337</v>
       </c>
       <c r="K12">
-        <v>17.04605738763461</v>
+        <v>13.9959346977713</v>
       </c>
       <c r="L12">
-        <v>10.20069702006104</v>
+        <v>11.99070240614804</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.22012623368702</v>
       </c>
       <c r="N12">
-        <v>11.99333022364389</v>
+        <v>10.56086172695689</v>
       </c>
       <c r="O12">
-        <v>131.8083833133453</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>11.78205184235936</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>131.436555348667</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.256066258064271</v>
+        <v>9.225490477721475</v>
       </c>
       <c r="D13">
-        <v>5.86842438666808</v>
+        <v>5.208723158617961</v>
       </c>
       <c r="E13">
-        <v>16.32527032230045</v>
+        <v>16.444763261392</v>
       </c>
       <c r="F13">
-        <v>20.41644884114057</v>
+        <v>16.90102509458979</v>
       </c>
       <c r="G13">
-        <v>35.97191015609053</v>
+        <v>32.88558067247529</v>
       </c>
       <c r="H13">
-        <v>8.744191398124554</v>
+        <v>8.314485812353343</v>
       </c>
       <c r="I13">
-        <v>6.414346758635703</v>
+        <v>5.817941345848599</v>
       </c>
       <c r="J13">
-        <v>9.592680747687519</v>
+        <v>7.920565918727528</v>
       </c>
       <c r="K13">
-        <v>15.59514978892909</v>
+        <v>12.8688580460667</v>
       </c>
       <c r="L13">
-        <v>10.79339540747173</v>
+        <v>11.2893654557881</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.39302604978266</v>
       </c>
       <c r="N13">
-        <v>12.5749931660758</v>
+        <v>11.11941894419133</v>
       </c>
       <c r="O13">
-        <v>131.333943956473</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>12.37835326006048</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>130.9768494079736</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.330368757041549</v>
+        <v>9.250609388708627</v>
       </c>
       <c r="D14">
-        <v>5.932458112285416</v>
+        <v>5.330467667102561</v>
       </c>
       <c r="E14">
-        <v>16.85664000223791</v>
+        <v>16.96761911935791</v>
       </c>
       <c r="F14">
-        <v>18.77476660100595</v>
+        <v>15.65076617114048</v>
       </c>
       <c r="G14">
-        <v>33.45222751964876</v>
+        <v>30.51289775951165</v>
       </c>
       <c r="H14">
-        <v>9.243240307619965</v>
+        <v>8.870091367348014</v>
       </c>
       <c r="I14">
-        <v>6.277395744980041</v>
+        <v>5.712160696620737</v>
       </c>
       <c r="J14">
-        <v>9.0630935323521</v>
+        <v>7.789678371409692</v>
       </c>
       <c r="K14">
-        <v>14.47830314110248</v>
+        <v>12.09915580189699</v>
       </c>
       <c r="L14">
-        <v>11.14510859296674</v>
+        <v>10.86120779556417</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.656053385537353</v>
       </c>
       <c r="N14">
-        <v>12.89558961893226</v>
+        <v>11.44173482866661</v>
       </c>
       <c r="O14">
-        <v>129.8552330442299</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>12.70961477589917</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>129.5284708916345</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.334804265327124</v>
+        <v>9.241167537488815</v>
       </c>
       <c r="D15">
-        <v>5.931507888899349</v>
+        <v>5.355731396037847</v>
       </c>
       <c r="E15">
-        <v>16.93342461795193</v>
+        <v>17.04523205196284</v>
       </c>
       <c r="F15">
-        <v>18.28435593814187</v>
+        <v>15.32586544985045</v>
       </c>
       <c r="G15">
-        <v>32.61894833132264</v>
+        <v>29.66329134133904</v>
       </c>
       <c r="H15">
-        <v>9.319449840195171</v>
+        <v>8.9668656557273</v>
       </c>
       <c r="I15">
-        <v>6.198371747465012</v>
+        <v>5.650504436829936</v>
       </c>
       <c r="J15">
-        <v>8.915079965426097</v>
+        <v>7.825038572153102</v>
       </c>
       <c r="K15">
-        <v>14.15724673772959</v>
+        <v>11.91546880315798</v>
       </c>
       <c r="L15">
-        <v>11.19766321032013</v>
+        <v>10.77825439449072</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.391450147996846</v>
       </c>
       <c r="N15">
-        <v>12.92600355761261</v>
+        <v>11.48469256434935</v>
       </c>
       <c r="O15">
-        <v>128.9571260788485</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>12.74252193148441</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>128.6467267620424</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.123850099588045</v>
+        <v>9.009108683854048</v>
       </c>
       <c r="D16">
-        <v>5.787804599382675</v>
+        <v>5.31397180388795</v>
       </c>
       <c r="E16">
-        <v>16.36146142231825</v>
+        <v>16.49698067037535</v>
       </c>
       <c r="F16">
-        <v>17.7672700174701</v>
+        <v>15.38101277070955</v>
       </c>
       <c r="G16">
-        <v>31.03277026699659</v>
+        <v>27.62261407947861</v>
       </c>
       <c r="H16">
-        <v>8.699414148676645</v>
+        <v>8.412128069100557</v>
       </c>
       <c r="I16">
-        <v>5.767173892221333</v>
+        <v>5.306608704388944</v>
       </c>
       <c r="J16">
-        <v>8.84433786881055</v>
+        <v>8.447399074282306</v>
       </c>
       <c r="K16">
-        <v>13.94546581389028</v>
+        <v>12.11789075431805</v>
       </c>
       <c r="L16">
-        <v>10.82140806038545</v>
+        <v>11.06032835583045</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.712184915858197</v>
       </c>
       <c r="N16">
-        <v>12.4494708564798</v>
+        <v>11.08916648539158</v>
       </c>
       <c r="O16">
-        <v>123.8607086229592</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>12.26023090513597</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>123.6281079567158</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.916919741139834</v>
+        <v>8.8033764872067</v>
       </c>
       <c r="D17">
-        <v>5.640352051117374</v>
+        <v>5.204450258021944</v>
       </c>
       <c r="E17">
-        <v>15.61477496092034</v>
+        <v>15.76780527886991</v>
       </c>
       <c r="F17">
-        <v>18.32763984924882</v>
+        <v>16.10517210418698</v>
       </c>
       <c r="G17">
-        <v>31.38987205417927</v>
+        <v>27.57603583806117</v>
       </c>
       <c r="H17">
-        <v>7.894405371593749</v>
+        <v>7.627574859484167</v>
       </c>
       <c r="I17">
-        <v>5.514840946845208</v>
+        <v>5.102378220651135</v>
       </c>
       <c r="J17">
-        <v>9.085535480619471</v>
+        <v>8.924043818154786</v>
       </c>
       <c r="K17">
-        <v>14.41218200908531</v>
+        <v>12.67017680982886</v>
       </c>
       <c r="L17">
-        <v>10.32897350233752</v>
+        <v>11.49259030160757</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.619394959777225</v>
       </c>
       <c r="N17">
-        <v>11.89620449747363</v>
+        <v>10.59848116133723</v>
       </c>
       <c r="O17">
-        <v>120.7580646027571</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>11.69571766089293</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>120.5635570317366</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.680911497113755</v>
+        <v>8.596732876496443</v>
       </c>
       <c r="D18">
-        <v>5.481717245071894</v>
+        <v>5.045261846304533</v>
       </c>
       <c r="E18">
-        <v>14.63771667188569</v>
+        <v>14.81111185458716</v>
       </c>
       <c r="F18">
-        <v>19.83918014515701</v>
+        <v>17.51346867922225</v>
       </c>
       <c r="G18">
-        <v>33.35466566936579</v>
+        <v>29.13567780293113</v>
       </c>
       <c r="H18">
-        <v>6.909433750478426</v>
+        <v>6.629038961906375</v>
       </c>
       <c r="I18">
-        <v>5.383970446849895</v>
+        <v>4.992930642832268</v>
       </c>
       <c r="J18">
-        <v>9.612957627540398</v>
+        <v>9.456565224442762</v>
       </c>
       <c r="K18">
-        <v>15.50227389588622</v>
+        <v>13.62603383304315</v>
       </c>
       <c r="L18">
-        <v>9.681302085610735</v>
+        <v>12.15517985808911</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.074139809531674</v>
       </c>
       <c r="N18">
-        <v>11.22485877785988</v>
+        <v>9.970203011660175</v>
       </c>
       <c r="O18">
-        <v>118.9864418162799</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>11.00567699384647</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>118.8091454963159</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.484618214590502</v>
+        <v>8.451103105715859</v>
       </c>
       <c r="D19">
-        <v>5.316265055181863</v>
+        <v>4.855590945062025</v>
       </c>
       <c r="E19">
-        <v>13.57445272751615</v>
+        <v>13.77135481962929</v>
       </c>
       <c r="F19">
-        <v>21.84869674178713</v>
+        <v>19.26183280814375</v>
       </c>
       <c r="G19">
-        <v>36.2180457576201</v>
+        <v>31.53660587279111</v>
       </c>
       <c r="H19">
-        <v>6.079361787729116</v>
+        <v>5.759623672956228</v>
       </c>
       <c r="I19">
-        <v>5.362870949181898</v>
+        <v>4.972963138953133</v>
       </c>
       <c r="J19">
-        <v>10.28319024986421</v>
+        <v>10.01155452766823</v>
       </c>
       <c r="K19">
-        <v>16.8996040385846</v>
+        <v>14.76400215745009</v>
       </c>
       <c r="L19">
-        <v>8.984840736715698</v>
+        <v>12.92162788204655</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.958504068870775</v>
       </c>
       <c r="N19">
-        <v>10.51494241923999</v>
+        <v>9.303825512071237</v>
       </c>
       <c r="O19">
-        <v>118.4039688137013</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>10.27545324375084</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>118.2286381815436</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.353781365280343</v>
+        <v>8.428723951850081</v>
       </c>
       <c r="D20">
-        <v>5.164021693775633</v>
+        <v>4.615048700534824</v>
       </c>
       <c r="E20">
-        <v>12.3547390215332</v>
+        <v>12.58763953336244</v>
       </c>
       <c r="F20">
-        <v>25.29229150764307</v>
+        <v>22.03339769623031</v>
       </c>
       <c r="G20">
-        <v>41.5912221537562</v>
+        <v>36.25865012822909</v>
       </c>
       <c r="H20">
-        <v>6.021524963357626</v>
+        <v>5.614409219125304</v>
       </c>
       <c r="I20">
-        <v>5.646078547267944</v>
+        <v>5.196598724081252</v>
       </c>
       <c r="J20">
-        <v>11.3942235709852</v>
+        <v>10.67364999426448</v>
       </c>
       <c r="K20">
-        <v>19.2466675680416</v>
+        <v>16.51095815451323</v>
       </c>
       <c r="L20">
-        <v>8.198594201208687</v>
+        <v>14.0173756034443</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.59408392558013</v>
       </c>
       <c r="N20">
-        <v>9.788134878457967</v>
+        <v>8.576998685070976</v>
       </c>
       <c r="O20">
-        <v>121.1754543709473</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.529076982322534</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>120.9588009832889</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.677505363280767</v>
+        <v>8.807390036971075</v>
       </c>
       <c r="D21">
-        <v>5.346254275710546</v>
+        <v>4.58367238405853</v>
       </c>
       <c r="E21">
-        <v>12.99394771590846</v>
+        <v>13.19706335413579</v>
       </c>
       <c r="F21">
-        <v>27.10782387054756</v>
+        <v>22.67940823823068</v>
       </c>
       <c r="G21">
-        <v>45.29259015309911</v>
+        <v>40.77307495848882</v>
       </c>
       <c r="H21">
-        <v>7.169242340676199</v>
+        <v>6.609229150791107</v>
       </c>
       <c r="I21">
-        <v>6.436281089156476</v>
+        <v>5.821656608900995</v>
       </c>
       <c r="J21">
-        <v>11.89529589862275</v>
+        <v>9.605999821775745</v>
       </c>
       <c r="K21">
-        <v>20.35064408671695</v>
+        <v>16.71739268097445</v>
       </c>
       <c r="L21">
-        <v>8.630152153742912</v>
+        <v>13.8413199313119</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.93945426819278</v>
       </c>
       <c r="N21">
-        <v>10.40400339893805</v>
+        <v>9.061470097789611</v>
       </c>
       <c r="O21">
-        <v>130.4083271960036</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>10.16540626817308</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>130.0431855924622</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.877546664523363</v>
+        <v>9.03714542054338</v>
       </c>
       <c r="D22">
-        <v>5.47620534491177</v>
+        <v>4.570610525250329</v>
       </c>
       <c r="E22">
-        <v>13.4647480273648</v>
+        <v>13.64756343085645</v>
       </c>
       <c r="F22">
-        <v>28.45895000212448</v>
+        <v>23.15199057980003</v>
       </c>
       <c r="G22">
-        <v>47.86051030656816</v>
+        <v>43.8705702823519</v>
       </c>
       <c r="H22">
-        <v>7.966061477219147</v>
+        <v>7.29567329099258</v>
       </c>
       <c r="I22">
-        <v>6.980836478981008</v>
+        <v>6.248820265054865</v>
       </c>
       <c r="J22">
-        <v>12.25357908788891</v>
+        <v>8.833165331805013</v>
       </c>
       <c r="K22">
-        <v>21.13041585084273</v>
+        <v>16.87674980714355</v>
       </c>
       <c r="L22">
-        <v>8.94859075929201</v>
+        <v>13.70797428693718</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.84845513162699</v>
       </c>
       <c r="N22">
-        <v>10.86141975581429</v>
+        <v>9.411443731381819</v>
       </c>
       <c r="O22">
-        <v>136.5821347143835</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.63994494129823</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>136.082392872332</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.754054336768531</v>
+        <v>8.91023414739805</v>
       </c>
       <c r="D23">
-        <v>5.414927462394174</v>
+        <v>4.599072073694301</v>
       </c>
       <c r="E23">
-        <v>13.21019710983284</v>
+        <v>13.41141557774859</v>
       </c>
       <c r="F23">
-        <v>27.74136316211845</v>
+        <v>23.00692326270698</v>
       </c>
       <c r="G23">
-        <v>46.56785556099815</v>
+        <v>42.140469706224</v>
       </c>
       <c r="H23">
-        <v>7.537257221216219</v>
+        <v>6.928336785059286</v>
       </c>
       <c r="I23">
-        <v>6.688224059130746</v>
+        <v>6.020104220730932</v>
       </c>
       <c r="J23">
-        <v>12.07963218639556</v>
+        <v>9.40929701036784</v>
       </c>
       <c r="K23">
-        <v>20.75723622173455</v>
+        <v>16.87896583463785</v>
       </c>
       <c r="L23">
-        <v>8.772013667794297</v>
+        <v>13.84146254737335</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.4256613084436</v>
       </c>
       <c r="N23">
-        <v>10.62249033801177</v>
+        <v>9.217340987599371</v>
       </c>
       <c r="O23">
-        <v>133.2685591728104</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>10.38993158888361</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>132.8460640813164</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.304249329840124</v>
+        <v>8.377797641367703</v>
       </c>
       <c r="D24">
-        <v>5.156882018044748</v>
+        <v>4.605894880491401</v>
       </c>
       <c r="E24">
-        <v>12.23159798100968</v>
+        <v>12.46785511901842</v>
       </c>
       <c r="F24">
-        <v>25.58513678210657</v>
+        <v>22.29840931085899</v>
       </c>
       <c r="G24">
-        <v>42.02144865266082</v>
+        <v>36.62284682751941</v>
       </c>
       <c r="H24">
-        <v>6.018369707215975</v>
+        <v>5.611247209900888</v>
       </c>
       <c r="I24">
-        <v>5.64001047813217</v>
+        <v>5.189213334424374</v>
       </c>
       <c r="J24">
-        <v>11.49820297498371</v>
+        <v>10.77046952630303</v>
       </c>
       <c r="K24">
-        <v>19.47232719229981</v>
+        <v>16.70659599013672</v>
       </c>
       <c r="L24">
-        <v>8.11315109770227</v>
+        <v>14.15515764534273</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.7275770570342</v>
       </c>
       <c r="N24">
-        <v>9.721568203949287</v>
+        <v>8.495106612631371</v>
       </c>
       <c r="O24">
-        <v>121.0317274738581</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.459876581084243</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>120.8157862796364</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.798454230106158</v>
+        <v>7.607632341732703</v>
       </c>
       <c r="D25">
-        <v>4.853810841721725</v>
+        <v>4.437194560241525</v>
       </c>
       <c r="E25">
-        <v>11.10981469506546</v>
+        <v>11.30541001720166</v>
       </c>
       <c r="F25">
-        <v>23.80915780627553</v>
+        <v>21.25066954230308</v>
       </c>
       <c r="G25">
-        <v>37.81148840484143</v>
+        <v>33.10029294914213</v>
       </c>
       <c r="H25">
-        <v>4.513768511201376</v>
+        <v>4.275771676211615</v>
       </c>
       <c r="I25">
-        <v>4.58432331916228</v>
+        <v>4.325034801911514</v>
       </c>
       <c r="J25">
-        <v>11.05324497867788</v>
+        <v>10.66877669743339</v>
       </c>
       <c r="K25">
-        <v>18.42713376542043</v>
+        <v>16.25518536307533</v>
       </c>
       <c r="L25">
-        <v>7.379300379459269</v>
+        <v>14.19412526510395</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.53821802080823</v>
       </c>
       <c r="N25">
-        <v>8.739618010435562</v>
+        <v>7.704621935387267</v>
       </c>
       <c r="O25">
-        <v>107.9230440368773</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.469186043890545</v>
       </c>
       <c r="Q25">
+        <v>107.8306679129593</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
